--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evri.sharepoint.com/sites/ukho-meds/Shared Documents/MEDS DB/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{48FA2476-D73C-4244-B65D-A11DB5C025E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7E35009A-2BD4-47D7-9464-5733E43E257A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{48FA2476-D73C-4244-B65D-A11DB5C025E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C419E5B4-0D4A-4A59-9024-951E798AF7A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" activeTab="1" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="5" r:id="rId1"/>
@@ -893,17 +893,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -943,9 +934,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -955,9 +943,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +967,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF416807-1578-4EC3-8E4D-DB242418A5D2}">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1368,7 @@
       <c r="A1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="32" t="s">
         <v>154</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1377,38 +1377,38 @@
       <c r="E1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1416,25 +1416,25 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="17">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1442,25 +1442,25 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1468,25 +1468,25 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1494,25 +1494,25 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1520,25 +1520,25 @@
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>6</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1546,25 +1546,25 @@
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>7</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1572,25 +1572,25 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1598,25 +1598,25 @@
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>9</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1624,25 +1624,25 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="17">
         <v>10</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1650,25 +1650,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>11</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1676,25 +1676,25 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>12</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1702,25 +1702,25 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <v>13</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1728,25 +1728,25 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="17">
         <v>14</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1754,21 +1754,21 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="17">
         <v>15</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1776,25 +1776,25 @@
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="17">
         <v>16</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1802,25 +1802,25 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="17">
         <v>17</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1828,210 +1828,210 @@
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="17">
         <v>18</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="17">
         <v>19</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="17">
         <v>20</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="17">
         <v>21</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="17">
         <v>22</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="19">
         <v>23</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="30"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="30"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2197,1337 +2197,1355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748F7A6-9708-4A82-9ADC-4118F011AC82}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="40"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="20">
+      <c r="C2" s="24"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="20">
+      <c r="H2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="20">
+      <c r="K2" s="17">
         <v>1</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="20">
+      <c r="C3" s="24"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="20">
+      <c r="H3" s="17">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="20">
+      <c r="K3" s="17">
         <v>2</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="20">
+      <c r="C4" s="24"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="20">
+      <c r="K4" s="17">
         <v>3</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="20">
+      <c r="E5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="20">
+      <c r="H5" s="17">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="20">
+      <c r="K5" s="17">
         <v>4</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="20">
+      <c r="E6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="20">
+      <c r="K6" s="17">
         <v>5</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="M6" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="20">
+      <c r="C7" s="24"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H7" s="17">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="20">
+      <c r="K7" s="17">
         <v>8</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="20">
+      <c r="C8" s="24"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="17">
         <v>22</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="20">
+      <c r="K8" s="17">
         <v>7</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="M8" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="20">
+      <c r="C9" s="24"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17">
         <v>8</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="17">
         <v>21</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="J9" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="20">
+      <c r="K9" s="17">
         <v>14</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="20">
+      <c r="C10" s="24"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17">
         <v>9</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="17">
         <v>15</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="20">
+      <c r="K10" s="17">
         <v>11</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="M10" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="20">
+      <c r="C11" s="24"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="20">
+      <c r="H11" s="17">
         <v>17</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="J11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="20">
+      <c r="K11" s="17">
         <v>22</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="M11" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="20">
+      <c r="C12" s="24"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="17">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="17">
         <v>19</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="20">
+      <c r="K12" s="17">
         <v>19</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="M12" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="20">
+      <c r="C13" s="24"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17">
         <v>12</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="36" t="s">
+      <c r="H13" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>197</v>
       </c>
       <c r="L13" s="31" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="20">
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="17">
         <v>13</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="20">
+      <c r="H14" s="17">
         <v>9</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="20">
+      <c r="K14" s="17">
         <v>12</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="M14" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="20">
+      <c r="C15" s="24"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17">
         <v>14</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="G15" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="20">
+      <c r="H15" s="17">
         <v>7</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="J15" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="20">
+      <c r="K15" s="17">
         <v>9</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="M15" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="20">
+      <c r="C16" s="24"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17">
         <v>15</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="20">
+      <c r="H16" s="17">
         <v>13</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="J16" s="20">
+      <c r="K16" s="17">
         <v>21</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="M16" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20">
+      <c r="C17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="G17" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="36" t="s">
+      <c r="H17" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>197</v>
       </c>
       <c r="L17" s="31" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="20">
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17">
         <v>17</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="20">
+      <c r="H18" s="17">
         <v>10</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="20">
+      <c r="K18" s="17">
         <v>13</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="M18" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="20">
+      <c r="C19" s="24"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="17">
         <v>18</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K19" s="36" t="s">
+      <c r="H19" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>197</v>
       </c>
       <c r="L19" s="31" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="20">
+      <c r="C20" s="24"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="17">
         <v>19</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="G20" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="20">
+      <c r="H20" s="17">
         <v>12</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="I20" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="J20" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="20">
+      <c r="K20" s="17">
         <v>18</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="L20" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="M20" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="20">
+      <c r="C21" s="24"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="17">
         <v>20</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="G21" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="20">
+      <c r="H21" s="17">
         <v>11</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="I21" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="J21" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="20">
+      <c r="K21" s="17">
         <v>17</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="L21" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="M21" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="20">
+      <c r="B22" s="30"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="17">
         <v>21</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="G22" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K22" s="36" t="s">
+      <c r="H22" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>197</v>
       </c>
       <c r="L22" s="31" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="M22" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="20">
+      <c r="B23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="17">
         <v>22</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="G23" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K23" s="36" t="s">
+      <c r="H23" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>197</v>
       </c>
       <c r="L23" s="31" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="M23" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="20">
+      <c r="B24" s="30"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="17">
         <v>23</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="G24" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="20">
+      <c r="H24" s="17">
         <v>14</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="I24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="J24" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="20">
+      <c r="K24" s="17">
         <v>16</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="M24" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="20">
+      <c r="D25" s="21"/>
+      <c r="E25" s="17">
         <v>24</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="G25" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="20">
+      <c r="H25" s="17">
         <v>16</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="I25" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="J25" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J25" s="20">
+      <c r="K25" s="17">
         <v>15</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="M25" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="20">
+      <c r="D26" s="21"/>
+      <c r="E26" s="17">
         <v>25</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="G26" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="20">
+      <c r="H26" s="17">
         <v>20</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="I26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="J26" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J26" s="20">
+      <c r="K26" s="17">
         <v>6</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="M26" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="20">
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="17">
         <v>6</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="I27" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="J27" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J27" s="20">
+      <c r="K27" s="17">
         <v>20</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="L27" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="M27" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="20">
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="17">
         <v>8</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="J28" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="20">
+      <c r="K28" s="17">
         <v>10</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L28" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="M28" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="20">
+      <c r="D29" s="21"/>
+      <c r="E29" s="17">
         <v>26</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="20">
+      <c r="H29" s="17">
         <v>23</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="I29" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="J29" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="20">
+      <c r="K29" s="17">
         <v>23</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L29" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="M29" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="20">
+      <c r="D30" s="21"/>
+      <c r="E30" s="17">
         <v>27</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="G30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="20">
+      <c r="H30" s="17">
         <v>24</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="J30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J30" s="20">
+      <c r="K30" s="17">
         <v>24</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="L30" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="M30" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="20">
+      <c r="D31" s="21"/>
+      <c r="E31" s="17">
         <v>28</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="G31" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="20">
+      <c r="H31" s="17">
         <v>25</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="I31" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="J31" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="20">
+      <c r="K31" s="17">
         <v>25</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="M31" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="20">
+      <c r="D32" s="21"/>
+      <c r="E32" s="17">
         <v>29</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="G32" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="20">
+      <c r="H32" s="17">
         <v>26</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="I32" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="J32" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="20">
+      <c r="K32" s="17">
         <v>26</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="M32" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="20">
+      <c r="D33" s="21"/>
+      <c r="E33" s="17">
         <v>30</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="20">
+      <c r="H33" s="17">
         <v>27</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="I33" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="J33" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J33" s="20">
+      <c r="K33" s="17">
         <v>27</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="L33" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="M33" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="20">
+      <c r="D34" s="21"/>
+      <c r="E34" s="17">
         <v>31</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="20">
+      <c r="H34" s="17">
         <v>28</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="I34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="J34" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J34" s="20">
+      <c r="K34" s="17">
         <v>28</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="L34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="M34" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="20">
+      <c r="D35" s="21"/>
+      <c r="E35" s="17">
         <v>32</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="F35" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="20">
+      <c r="H35" s="17">
         <v>29</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="I35" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="J35" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="20">
+      <c r="K35" s="17">
         <v>29</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="L35" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="M35" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="20">
+      <c r="D36" s="21"/>
+      <c r="E36" s="17">
         <v>33</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="F36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="20">
+      <c r="H36" s="17">
         <v>30</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="I36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="J36" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J36" s="20">
+      <c r="K36" s="17">
         <v>30</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="L36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="M36" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="23">
+      <c r="B37" s="30"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="19">
         <v>34</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="F37" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="G37" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="23">
+      <c r="H37" s="19">
         <v>31</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="I37" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="J37" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="J37" s="23">
+      <c r="K37" s="19">
         <v>31</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="L37" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="M37" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="30"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3629,9 +3647,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3640,819 +3658,838 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B55925D-514D-40B6-9C15-4DD8370C08AF}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="40"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="29">
+      <c r="E2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="20">
+      <c r="H2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="20">
+      <c r="K2" s="17">
         <v>1</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="29">
+      <c r="E3" s="24">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="20">
+      <c r="H3" s="17">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="J3" s="20">
+      <c r="K3" s="17">
         <v>2</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="29">
+      <c r="E4" s="24">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="29">
+      <c r="E5" s="24">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="29">
+      <c r="E6" s="24">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="17">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="20">
+      <c r="K6" s="17">
         <v>4</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="M6" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="29">
+      <c r="E7" s="24">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H7" s="17">
         <v>5</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="20">
+      <c r="K7" s="17">
         <v>3</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="D8" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="29">
+      <c r="E8" s="24">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="29">
+      <c r="E9" s="24">
         <v>8</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="17">
         <v>9</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="J9" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="20">
+      <c r="K9" s="17">
         <v>5</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="C10" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="29">
+      <c r="E10" s="24">
         <v>9</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="17">
         <v>7</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="C11" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="29">
+      <c r="E11" s="24">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="20">
+      <c r="H11" s="17">
         <v>10</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="J11" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="D12" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="29">
+      <c r="E12" s="24">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="17">
         <v>8</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J12" s="20">
+      <c r="K12" s="17">
         <v>6</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="M12" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="C13" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="D13" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="29">
+      <c r="E13" s="24">
         <v>12</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="20">
+      <c r="H13" s="17">
         <v>11</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="J13" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="D14" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="27" t="s">
         <v>197</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="19">
         <v>4</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="J14" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="B24" s="30"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="B26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="B27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="B29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="B32" s="30"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="30"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="30"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4982,6 +5019,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -5204,27 +5261,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5241,29 +5303,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evri.sharepoint.com/sites/ukho-meds/Shared Documents/MEDS DB/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{48FA2476-D73C-4244-B65D-A11DB5C025E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C419E5B4-0D4A-4A59-9024-951E798AF7A8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{48FA2476-D73C-4244-B65D-A11DB5C025E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CFC75F8B-9DE1-4C62-8BBE-F616945989C1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" activeTab="1" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="216">
   <si>
     <t>RECORDNUMBER</t>
   </si>
@@ -676,25 +676,7 @@
     <t xml:space="preserve">Table </t>
   </si>
   <si>
-    <t>Are there any file naming conventions we should be aware of?</t>
-  </si>
-  <si>
-    <t>What is the repeating part of the records that is not in the documentation sent?</t>
-  </si>
-  <si>
-    <t>Do they upload specific files for the three kinds of profile data?</t>
-  </si>
-  <si>
-    <t>What is it for and how do we populate it?( It seems to be the observations in a job, one record for each observation)</t>
-  </si>
-  <si>
-    <t>For SERD we can:
-- sit with someone who knows the maping and figure it out (remotely),
-- have updated mapping documentation,
-- have data from the profile tables matched with their original files</t>
-  </si>
-  <si>
-    <t>SERD fields can be found in FIELD_LOOKUP, as .CSV.</t>
+    <t>Do SERD observations add to OBSERVATION table? (could not find any of the sample jobs)</t>
   </si>
 </sst>
 </file>
@@ -974,10 +956,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,46 +1279,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF416807-1578-4EC3-8E4D-DB242418A5D2}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>220</v>
-      </c>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,7 +1308,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1344,7 @@
         <v>157</v>
       </c>
       <c r="H1" s="40"/>
-      <c r="I1" s="42"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1755,9 +1715,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
         <v>198</v>
@@ -1776,17 +1734,11 @@
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="G17" s="17">
         <v>16</v>
@@ -2234,17 +2186,17 @@
         <v>192</v>
       </c>
       <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="39" t="s">
         <v>193</v>
       </c>
       <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="39" t="s">
         <v>200</v>
       </c>
       <c r="L1" s="40"/>
-      <c r="M1" s="42"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3696,17 +3648,17 @@
         <v>213</v>
       </c>
       <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="39" t="s">
         <v>212</v>
       </c>
       <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="39" t="s">
         <v>211</v>
       </c>
       <c r="L1" s="40"/>
-      <c r="M1" s="42"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5019,26 +4971,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -5261,32 +5193,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5303,4 +5230,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evri.sharepoint.com/sites/ukho-meds/Shared Documents/MEDS DB/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{48FA2476-D73C-4244-B65D-A11DB5C025E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CFC75F8B-9DE1-4C62-8BBE-F616945989C1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" activeTab="1" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="PROFILE_INDEX" sheetId="2" r:id="rId2"/>
     <sheet name="PROFILE_HEADER" sheetId="3" r:id="rId3"/>
     <sheet name="PROFILE_DATA" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="DEPTH LEVELS" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="183">
   <si>
     <t>RECORDNUMBER</t>
   </si>
@@ -229,141 +229,21 @@
     <t>SOUNDVELOCITYCODE</t>
   </si>
   <si>
-    <t>SERD_STG_HEADER</t>
-  </si>
-  <si>
     <t>MEDS_JOB_NUMBER</t>
   </si>
   <si>
-    <t>RECORD_TYPE</t>
-  </si>
-  <si>
-    <t>RECORD_SEQUENCE</t>
-  </si>
-  <si>
     <t>DATA_IDENTIFIER</t>
   </si>
   <si>
-    <t>DATA_USE_CODE</t>
-  </si>
-  <si>
-    <t>FILE_CODE</t>
-  </si>
-  <si>
     <t>MARSDEN_SQUARE</t>
   </si>
   <si>
-    <t>DEGREE_SQUARE</t>
-  </si>
-  <si>
-    <t>GEO_POSITION</t>
-  </si>
-  <si>
-    <t>QUADRANT_CODE</t>
-  </si>
-  <si>
-    <t>POSITION_DETERMINATION_CODE</t>
-  </si>
-  <si>
-    <t>POSITION_ACCURACY_CODE</t>
-  </si>
-  <si>
-    <t>POSITION_ADDITIONAL_REFERENCE</t>
-  </si>
-  <si>
-    <t>ARCHIVE_YEAR</t>
-  </si>
-  <si>
-    <t>OBSERVATION_DATE</t>
-  </si>
-  <si>
-    <t>OBSERVATION_TIME</t>
-  </si>
-  <si>
-    <t>COUNTRY_CODE</t>
-  </si>
-  <si>
-    <t>SHIP_NUMBER</t>
-  </si>
-  <si>
-    <t>SHIP_NUMBER_TYPE</t>
-  </si>
-  <si>
-    <t>ORIGINATOR_CRUISE_NUMBER</t>
-  </si>
-  <si>
-    <t>STATION_NUMBER</t>
-  </si>
-  <si>
-    <t>INSTITUTE_NUMBER</t>
-  </si>
-  <si>
-    <t>INSTITUTE_NUMBER_TYPE</t>
-  </si>
-  <si>
-    <t>LAND_CHECK_INDICATOR</t>
-  </si>
-  <si>
-    <t>DEPTH_LEVEL_NUMBER</t>
-  </si>
-  <si>
-    <t>SEABED_DEPTH</t>
-  </si>
-  <si>
-    <t>MIN_OBSERVATION_DEPTH</t>
-  </si>
-  <si>
-    <t>MAX_OBSERVATION_DEPTH</t>
-  </si>
-  <si>
-    <t>DEPTH_CORRECTION</t>
-  </si>
-  <si>
-    <t>TEMPERATURE_CORRECTION</t>
-  </si>
-  <si>
-    <t>SALINITY_CORRECTION</t>
-  </si>
-  <si>
-    <t>SOUND_VELOCITY_CORRECTION</t>
-  </si>
-  <si>
-    <t>OBSERVATION_UNIT_CODE</t>
-  </si>
-  <si>
     <t>INSTRUMENT_CODE</t>
   </si>
   <si>
-    <t>DATA_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>DATA_MODE_CODE</t>
-  </si>
-  <si>
-    <t>DATA_METHOD_CODE</t>
-  </si>
-  <si>
-    <t>WIND_DIRECTION_CODE</t>
-  </si>
-  <si>
     <t>WIND_SPEED</t>
   </si>
   <si>
-    <t>DRY_AIR_TEMPERATURE</t>
-  </si>
-  <si>
-    <t>WET_AIR_TEMPERATURE</t>
-  </si>
-  <si>
-    <t>WEATHER_CODE</t>
-  </si>
-  <si>
-    <t>CLOUD_COVERAGE_CODE</t>
-  </si>
-  <si>
-    <t>SEA_STATE_CODE</t>
-  </si>
-  <si>
     <t>WAVE_PERIOD</t>
   </si>
   <si>
@@ -373,33 +253,6 @@
     <t>ATMOSPHERIC_PRESSURE</t>
   </si>
   <si>
-    <t>WATER_COLOUR_CODE</t>
-  </si>
-  <si>
-    <t>WATER_TRANSPARENCY</t>
-  </si>
-  <si>
-    <t>SALINITY_SCALE_CODE</t>
-  </si>
-  <si>
-    <t>BT_SEA_SURFACE_INSTRUMENT_CODE</t>
-  </si>
-  <si>
-    <t>BT_SEA_SURFACE_REFERENCE_TEMPERATURE</t>
-  </si>
-  <si>
-    <t>MBT_SEA_SURFACE_TEMPERATURE_CORRECTION</t>
-  </si>
-  <si>
-    <t>MBT_TYPE_QUALITY_CODE</t>
-  </si>
-  <si>
-    <t>MBT_GRADE_QUALITY_CODE</t>
-  </si>
-  <si>
-    <t>STG_FILE</t>
-  </si>
-  <si>
     <t>COMMENTS</t>
   </si>
   <si>
@@ -677,12 +530,63 @@
   </si>
   <si>
     <t>Do SERD observations add to OBSERVATION table? (could not find any of the sample jobs)</t>
+  </si>
+  <si>
+    <t>000011           1509711000021           1509811000031           1509811000041           1509811000051           1509811000061           1509811000071           1509811000081           1509811000091           1509811</t>
+  </si>
+  <si>
+    <t>DEPTH LEVEL</t>
+  </si>
+  <si>
+    <t>DEPTH QUALITY</t>
+  </si>
+  <si>
+    <t>TEMPERATUE</t>
+  </si>
+  <si>
+    <t>TEMPERATURE QUALITY</t>
+  </si>
+  <si>
+    <t>SALINE QUALITY</t>
+  </si>
+  <si>
+    <t>SOUND VELOCITY</t>
+  </si>
+  <si>
+    <t>SOUND VELOCITY QUALITY</t>
+  </si>
+  <si>
+    <t>SOUND VELOCITY CODE</t>
+  </si>
+  <si>
+    <t>01-MAY-24 10.50.54.851624000</t>
+  </si>
+  <si>
+    <t>01-MAY-24 10.50.55.992585000</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>position 47</t>
+  </si>
+  <si>
+    <t>Waiting algorithm</t>
+  </si>
+  <si>
+    <t>SHIP_DETAIL.MEDS_SHIP_NUMBER</t>
+  </si>
+  <si>
+    <t>Calculated from LAT/LON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\-mmm\-yy\ hh\.m\i\.ss.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -864,11 +768,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,6 +991,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1305,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,42 +1381,43 @@
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="H1" s="40"/>
       <c r="I1" s="41"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>54</v>
@@ -1366,180 +1426,186 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="G3" s="17">
         <v>2</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G4" s="17">
         <v>3</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="17">
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="G6" s="17">
         <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="G7" s="17">
         <v>6</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="G8" s="17">
         <v>7</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
@@ -1548,24 +1614,24 @@
         <v>8</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>24</v>
@@ -1574,24 +1640,24 @@
         <v>9</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>25</v>
@@ -1600,24 +1666,24 @@
         <v>10</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>22</v>
@@ -1626,24 +1692,24 @@
         <v>11</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>4</v>
@@ -1652,24 +1718,24 @@
         <v>12</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>7</v>
@@ -1681,21 +1747,21 @@
         <v>7</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>5</v>
@@ -1704,13 +1770,13 @@
         <v>14</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1718,16 +1784,16 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G16" s="17">
         <v>15</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1737,17 +1803,17 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
-        <v>198</v>
+      <c r="F17" s="60" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="17">
         <v>16</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,13 +1821,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>53</v>
@@ -1770,10 +1836,10 @@
         <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,16 +1850,16 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G19" s="17">
         <v>18</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1805,16 +1871,16 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G20" s="17">
         <v>19</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1826,16 +1892,16 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G21" s="17">
         <v>20</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1847,16 +1913,16 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G22" s="17">
         <v>21</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,25 +1931,25 @@
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="6" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G23" s="17">
         <v>22</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1895,16 +1961,16 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="14" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="G24" s="19">
         <v>23</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2151,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748F7A6-9708-4A82-9ADC-4118F011AC82}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,26 +2240,26 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="42"/>
       <c r="H1" s="39" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I1" s="40"/>
       <c r="J1" s="42"/>
       <c r="K1" s="39" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="41"/>
@@ -2208,28 +2274,28 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="H2" s="17">
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="K2" s="17">
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2242,28 +2308,28 @@
         <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H3" s="17">
         <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K3" s="17">
         <v>2</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2276,28 +2342,28 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="H4" s="17">
         <v>3</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="K4" s="17">
         <v>3</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2305,37 +2371,37 @@
         <v>3</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E5" s="17">
         <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H5" s="17">
         <v>4</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="K5" s="17">
         <v>4</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2343,37 +2409,37 @@
         <v>4</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="17">
         <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="H6" s="17">
         <v>5</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="K6" s="17">
         <v>5</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2386,28 +2452,28 @@
         <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="H7" s="17">
         <v>18</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="K7" s="17">
         <v>8</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2415,33 +2481,32 @@
         <v>6</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="21"/>
       <c r="E8" s="17">
         <v>7</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="H8" s="17">
         <v>22</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="K8" s="17">
         <v>7</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2454,28 +2519,28 @@
         <v>8</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="H9" s="17">
         <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="K9" s="17">
         <v>14</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2488,28 +2553,28 @@
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="H10" s="17">
         <v>15</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="K10" s="17">
         <v>11</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2522,28 +2587,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="H11" s="17">
         <v>17</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="K11" s="17">
         <v>22</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2556,28 +2621,28 @@
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="H12" s="17">
         <v>19</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="K12" s="17">
         <v>19</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2590,28 +2655,28 @@
         <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2624,28 +2689,28 @@
         <v>13</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="H14" s="17">
         <v>9</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="K14" s="17">
         <v>12</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2658,28 +2723,28 @@
         <v>14</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="H15" s="17">
         <v>7</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="K15" s="17">
         <v>9</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2692,28 +2757,28 @@
         <v>15</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="H16" s="17">
         <v>13</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="K16" s="17">
         <v>21</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2726,28 +2791,28 @@
         <v>16</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2760,28 +2825,28 @@
         <v>17</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="H18" s="17">
         <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="K18" s="17">
         <v>13</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2794,28 +2859,28 @@
         <v>18</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2828,28 +2893,28 @@
         <v>19</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="H20" s="17">
         <v>12</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="K20" s="17">
         <v>18</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2862,28 +2927,28 @@
         <v>20</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="H21" s="17">
         <v>11</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="K21" s="17">
         <v>17</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2897,28 +2962,28 @@
         <v>21</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2932,28 +2997,28 @@
         <v>22</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2970,7 +3035,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H24" s="17">
         <v>14</v>
@@ -2979,7 +3044,7 @@
         <v>40</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K24" s="17">
         <v>16</v>
@@ -2988,7 +3053,7 @@
         <v>40</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3002,28 +3067,28 @@
         <v>24</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H25" s="17">
         <v>16</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K25" s="17">
         <v>15</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3040,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H26" s="17">
         <v>20</v>
@@ -3049,7 +3114,7 @@
         <v>39</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K26" s="17">
         <v>6</v>
@@ -3058,7 +3123,7 @@
         <v>39</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3069,31 +3134,31 @@
       <c r="C27" s="25"/>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="H27" s="17">
         <v>6</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="K27" s="17">
         <v>20</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3104,31 +3169,31 @@
       <c r="C28" s="25"/>
       <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="H28" s="17">
         <v>8</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="K28" s="17">
         <v>10</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3142,28 +3207,28 @@
         <v>26</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H29" s="17">
         <v>23</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K29" s="17">
         <v>23</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3177,28 +3242,28 @@
         <v>27</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H30" s="17">
         <v>24</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K30" s="17">
         <v>24</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3212,28 +3277,28 @@
         <v>28</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H31" s="17">
         <v>25</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K31" s="17">
         <v>25</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3247,28 +3312,28 @@
         <v>29</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H32" s="17">
         <v>26</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K32" s="17">
         <v>26</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3282,28 +3347,28 @@
         <v>30</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H33" s="17">
         <v>27</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K33" s="17">
         <v>27</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3320,7 +3385,7 @@
         <v>30</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H34" s="17">
         <v>28</v>
@@ -3329,7 +3394,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K34" s="17">
         <v>28</v>
@@ -3338,7 +3403,7 @@
         <v>30</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,28 +3417,28 @@
         <v>32</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H35" s="17">
         <v>29</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K35" s="17">
         <v>29</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3387,28 +3452,28 @@
         <v>33</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H36" s="17">
         <v>30</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K36" s="17">
         <v>30</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,28 +3487,28 @@
         <v>34</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="H37" s="19">
         <v>31</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="K37" s="19">
         <v>31</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3612,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B55925D-514D-40B6-9C15-4DD8370C08AF}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,27 +3700,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="36" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="42"/>
       <c r="H1" s="39" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="I1" s="40"/>
       <c r="J1" s="42"/>
       <c r="K1" s="39" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="41"/>
@@ -3665,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>57</v>
@@ -3674,28 +3739,28 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="H2" s="17">
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="K2" s="17">
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3703,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>59</v>
@@ -3715,7 +3780,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="H3" s="17">
         <v>2</v>
@@ -3724,7 +3789,7 @@
         <v>59</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="K3" s="17">
         <v>2</v>
@@ -3733,7 +3798,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3741,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>61</v>
@@ -3753,7 +3818,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="H4" s="17">
         <v>3</v>
@@ -3762,16 +3827,16 @@
         <v>61</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3779,113 +3844,113 @@
         <v>3</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="E5" s="24">
         <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E6" s="24">
         <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="H6" s="17">
         <v>6</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="K6" s="17">
         <v>4</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="24">
         <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="H7" s="17">
         <v>5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="K7" s="17">
         <v>3</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3893,37 +3958,37 @@
         <v>6</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="E8" s="24">
         <v>7</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3931,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
@@ -3940,28 +4005,28 @@
         <v>8</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H9" s="17">
         <v>9</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K9" s="17">
         <v>5</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3969,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -3978,28 +4043,28 @@
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H10" s="17">
         <v>7</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4007,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
@@ -4016,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H11" s="17">
         <v>10</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4045,37 +4110,37 @@
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>198</v>
+        <v>145</v>
+      </c>
+      <c r="D12" s="26">
+        <v>853</v>
       </c>
       <c r="E12" s="24">
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H12" s="17">
         <v>8</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K12" s="17">
         <v>6</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4083,37 +4148,37 @@
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="E13" s="24">
         <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H13" s="17">
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4121,37 +4186,37 @@
         <v>12</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="H14" s="19">
         <v>4</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4448,522 +4513,2531 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5D8F-C104-45F1-B1F2-C760B5E00CD6}">
-  <dimension ref="A1:C69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060310E-1F88-4686-9470-C12E54B461AB}">
+  <dimension ref="A1:KQ19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A69"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="165.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="153" width="4" bestFit="1" customWidth="1"/>
+    <col min="154" max="217" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="1" spans="1:303" x14ac:dyDescent="0.25">
+      <c r="B1" s="49">
+        <v>848</v>
+      </c>
+      <c r="C1" s="50">
+        <v>849</v>
+      </c>
+      <c r="D1" s="50">
+        <v>850</v>
+      </c>
+      <c r="E1" s="50">
+        <v>851</v>
+      </c>
+      <c r="F1" s="50">
+        <v>852</v>
+      </c>
+      <c r="G1" s="50">
+        <v>853</v>
+      </c>
+      <c r="H1" s="50">
+        <v>854</v>
+      </c>
+      <c r="I1" s="50">
+        <v>855</v>
+      </c>
+      <c r="J1" s="50">
+        <v>856</v>
+      </c>
+      <c r="K1" s="50">
+        <v>857</v>
+      </c>
+      <c r="L1" s="50">
+        <v>858</v>
+      </c>
+      <c r="M1" s="50">
+        <v>859</v>
+      </c>
+      <c r="N1" s="50">
+        <v>860</v>
+      </c>
+      <c r="O1" s="50">
+        <v>861</v>
+      </c>
+      <c r="P1" s="50">
+        <v>862</v>
+      </c>
+      <c r="Q1" s="50">
+        <v>863</v>
+      </c>
+      <c r="R1" s="50">
+        <v>864</v>
+      </c>
+      <c r="S1" s="50">
+        <v>865</v>
+      </c>
+      <c r="T1" s="50">
+        <v>866</v>
+      </c>
+      <c r="U1" s="50">
+        <v>867</v>
+      </c>
+      <c r="V1" s="50">
+        <v>868</v>
+      </c>
+      <c r="W1" s="50">
+        <v>869</v>
+      </c>
+      <c r="X1" s="50">
+        <v>870</v>
+      </c>
+      <c r="Y1" s="50">
+        <v>871</v>
+      </c>
+      <c r="Z1" s="51">
+        <v>872</v>
+      </c>
+      <c r="AA1" s="52">
+        <v>873</v>
+      </c>
+      <c r="AB1" s="52">
+        <v>874</v>
+      </c>
+      <c r="AC1" s="52">
+        <v>875</v>
+      </c>
+      <c r="AD1" s="52">
+        <v>876</v>
+      </c>
+      <c r="AE1" s="52">
+        <v>877</v>
+      </c>
+      <c r="AF1" s="52">
+        <v>878</v>
+      </c>
+      <c r="AG1" s="52">
+        <v>879</v>
+      </c>
+      <c r="AH1" s="52">
+        <v>880</v>
+      </c>
+      <c r="AI1" s="52">
+        <v>881</v>
+      </c>
+      <c r="AJ1" s="52">
+        <v>882</v>
+      </c>
+      <c r="AK1" s="52">
+        <v>883</v>
+      </c>
+      <c r="AL1" s="52">
+        <v>884</v>
+      </c>
+      <c r="AM1" s="52">
+        <v>885</v>
+      </c>
+      <c r="AN1" s="52">
+        <v>886</v>
+      </c>
+      <c r="AO1" s="52">
+        <v>887</v>
+      </c>
+      <c r="AP1" s="52">
+        <v>888</v>
+      </c>
+      <c r="AQ1" s="52">
+        <v>889</v>
+      </c>
+      <c r="AR1" s="52">
+        <v>890</v>
+      </c>
+      <c r="AS1" s="52">
+        <v>891</v>
+      </c>
+      <c r="AT1" s="52">
+        <v>892</v>
+      </c>
+      <c r="AU1" s="52">
+        <v>893</v>
+      </c>
+      <c r="AV1" s="52">
+        <v>894</v>
+      </c>
+      <c r="AW1" s="53">
+        <v>895</v>
+      </c>
+      <c r="AX1" s="51">
+        <v>896</v>
+      </c>
+      <c r="AY1" s="52">
+        <v>897</v>
+      </c>
+      <c r="AZ1" s="52">
+        <v>898</v>
+      </c>
+      <c r="BA1" s="52">
+        <v>899</v>
+      </c>
+      <c r="BB1" s="52">
+        <v>900</v>
+      </c>
+      <c r="BC1" s="52">
+        <v>901</v>
+      </c>
+      <c r="BD1" s="52">
+        <v>902</v>
+      </c>
+      <c r="BE1" s="52">
+        <v>903</v>
+      </c>
+      <c r="BF1" s="52">
+        <v>904</v>
+      </c>
+      <c r="BG1" s="52">
+        <v>905</v>
+      </c>
+      <c r="BH1" s="52">
+        <v>906</v>
+      </c>
+      <c r="BI1" s="52">
+        <v>907</v>
+      </c>
+      <c r="BJ1" s="52">
+        <v>908</v>
+      </c>
+      <c r="BK1" s="52">
+        <v>909</v>
+      </c>
+      <c r="BL1" s="52">
+        <v>910</v>
+      </c>
+      <c r="BM1" s="52">
+        <v>911</v>
+      </c>
+      <c r="BN1" s="52">
+        <v>912</v>
+      </c>
+      <c r="BO1" s="52">
+        <v>913</v>
+      </c>
+      <c r="BP1" s="52">
+        <v>914</v>
+      </c>
+      <c r="BQ1" s="52">
+        <v>915</v>
+      </c>
+      <c r="BR1" s="52">
+        <v>916</v>
+      </c>
+      <c r="BS1" s="52">
+        <v>917</v>
+      </c>
+      <c r="BT1" s="52">
+        <v>918</v>
+      </c>
+      <c r="BU1" s="53">
+        <v>919</v>
+      </c>
+      <c r="BV1" s="51">
+        <v>920</v>
+      </c>
+      <c r="BW1" s="52">
+        <v>921</v>
+      </c>
+      <c r="BX1" s="52">
+        <v>922</v>
+      </c>
+      <c r="BY1" s="52">
+        <v>923</v>
+      </c>
+      <c r="BZ1" s="52">
+        <v>924</v>
+      </c>
+      <c r="CA1" s="52">
+        <v>925</v>
+      </c>
+      <c r="CB1" s="52">
+        <v>926</v>
+      </c>
+      <c r="CC1" s="52">
+        <v>927</v>
+      </c>
+      <c r="CD1" s="52">
+        <v>928</v>
+      </c>
+      <c r="CE1" s="52">
+        <v>929</v>
+      </c>
+      <c r="CF1" s="52">
+        <v>930</v>
+      </c>
+      <c r="CG1" s="52">
+        <v>931</v>
+      </c>
+      <c r="CH1" s="52">
+        <v>932</v>
+      </c>
+      <c r="CI1" s="52">
+        <v>933</v>
+      </c>
+      <c r="CJ1" s="52">
+        <v>934</v>
+      </c>
+      <c r="CK1" s="52">
+        <v>935</v>
+      </c>
+      <c r="CL1" s="52">
+        <v>936</v>
+      </c>
+      <c r="CM1" s="52">
+        <v>937</v>
+      </c>
+      <c r="CN1" s="52">
+        <v>938</v>
+      </c>
+      <c r="CO1" s="52">
+        <v>939</v>
+      </c>
+      <c r="CP1" s="52">
+        <v>940</v>
+      </c>
+      <c r="CQ1" s="52">
+        <v>941</v>
+      </c>
+      <c r="CR1" s="52">
+        <v>942</v>
+      </c>
+      <c r="CS1" s="53">
+        <v>943</v>
+      </c>
+      <c r="CT1" s="51">
+        <v>944</v>
+      </c>
+      <c r="CU1" s="52">
+        <v>945</v>
+      </c>
+      <c r="CV1" s="52">
+        <v>946</v>
+      </c>
+      <c r="CW1" s="52">
+        <v>947</v>
+      </c>
+      <c r="CX1" s="52">
+        <v>948</v>
+      </c>
+      <c r="CY1" s="52">
+        <v>949</v>
+      </c>
+      <c r="CZ1" s="52">
+        <v>950</v>
+      </c>
+      <c r="DA1" s="52">
+        <v>951</v>
+      </c>
+      <c r="DB1" s="52">
+        <v>952</v>
+      </c>
+      <c r="DC1" s="52">
+        <v>953</v>
+      </c>
+      <c r="DD1" s="52">
+        <v>954</v>
+      </c>
+      <c r="DE1" s="52">
+        <v>955</v>
+      </c>
+      <c r="DF1" s="52">
+        <v>956</v>
+      </c>
+      <c r="DG1" s="52">
+        <v>957</v>
+      </c>
+      <c r="DH1" s="52">
+        <v>958</v>
+      </c>
+      <c r="DI1" s="52">
+        <v>959</v>
+      </c>
+      <c r="DJ1" s="52">
+        <v>960</v>
+      </c>
+      <c r="DK1" s="52">
+        <v>961</v>
+      </c>
+      <c r="DL1" s="52">
+        <v>962</v>
+      </c>
+      <c r="DM1" s="52">
+        <v>963</v>
+      </c>
+      <c r="DN1" s="52">
+        <v>964</v>
+      </c>
+      <c r="DO1" s="52">
+        <v>965</v>
+      </c>
+      <c r="DP1" s="52">
+        <v>966</v>
+      </c>
+      <c r="DQ1" s="53">
+        <v>967</v>
+      </c>
+      <c r="DR1" s="51">
+        <v>968</v>
+      </c>
+      <c r="DS1" s="52">
+        <v>969</v>
+      </c>
+      <c r="DT1" s="52">
+        <v>970</v>
+      </c>
+      <c r="DU1" s="52">
+        <v>971</v>
+      </c>
+      <c r="DV1" s="52">
+        <v>972</v>
+      </c>
+      <c r="DW1" s="52">
+        <v>973</v>
+      </c>
+      <c r="DX1" s="52">
+        <v>974</v>
+      </c>
+      <c r="DY1" s="52">
+        <v>975</v>
+      </c>
+      <c r="DZ1" s="52">
+        <v>976</v>
+      </c>
+      <c r="EA1" s="52">
+        <v>977</v>
+      </c>
+      <c r="EB1" s="52">
+        <v>978</v>
+      </c>
+      <c r="EC1" s="52">
+        <v>979</v>
+      </c>
+      <c r="ED1" s="52">
+        <v>980</v>
+      </c>
+      <c r="EE1" s="52">
+        <v>981</v>
+      </c>
+      <c r="EF1" s="52">
+        <v>982</v>
+      </c>
+      <c r="EG1" s="52">
+        <v>983</v>
+      </c>
+      <c r="EH1" s="52">
+        <v>984</v>
+      </c>
+      <c r="EI1" s="52">
+        <v>985</v>
+      </c>
+      <c r="EJ1" s="52">
+        <v>986</v>
+      </c>
+      <c r="EK1" s="52">
+        <v>987</v>
+      </c>
+      <c r="EL1" s="52">
+        <v>988</v>
+      </c>
+      <c r="EM1" s="52">
+        <v>989</v>
+      </c>
+      <c r="EN1" s="52">
+        <v>990</v>
+      </c>
+      <c r="EO1" s="53">
+        <v>991</v>
+      </c>
+      <c r="EP1" s="51">
+        <v>992</v>
+      </c>
+      <c r="EQ1" s="52">
+        <v>993</v>
+      </c>
+      <c r="ER1" s="52">
+        <v>994</v>
+      </c>
+      <c r="ES1" s="52">
+        <v>995</v>
+      </c>
+      <c r="ET1" s="52">
+        <v>996</v>
+      </c>
+      <c r="EU1" s="52">
+        <v>997</v>
+      </c>
+      <c r="EV1" s="52">
+        <v>998</v>
+      </c>
+      <c r="EW1" s="52">
+        <v>999</v>
+      </c>
+      <c r="EX1" s="52">
+        <v>1000</v>
+      </c>
+      <c r="EY1" s="52">
+        <v>1001</v>
+      </c>
+      <c r="EZ1" s="52">
+        <v>1002</v>
+      </c>
+      <c r="FA1" s="52">
+        <v>1003</v>
+      </c>
+      <c r="FB1" s="52">
+        <v>1004</v>
+      </c>
+      <c r="FC1" s="52">
+        <v>1005</v>
+      </c>
+      <c r="FD1" s="52">
+        <v>1006</v>
+      </c>
+      <c r="FE1" s="52">
+        <v>1007</v>
+      </c>
+      <c r="FF1" s="52">
+        <v>1008</v>
+      </c>
+      <c r="FG1" s="52">
+        <v>1009</v>
+      </c>
+      <c r="FH1" s="52">
+        <v>1010</v>
+      </c>
+      <c r="FI1" s="52">
+        <v>1011</v>
+      </c>
+      <c r="FJ1" s="52">
+        <v>1012</v>
+      </c>
+      <c r="FK1" s="52">
+        <v>1013</v>
+      </c>
+      <c r="FL1" s="52">
+        <v>1014</v>
+      </c>
+      <c r="FM1" s="53">
+        <v>1015</v>
+      </c>
+      <c r="FN1" s="51">
+        <v>1016</v>
+      </c>
+      <c r="FO1" s="52">
+        <v>1017</v>
+      </c>
+      <c r="FP1" s="52">
+        <v>1018</v>
+      </c>
+      <c r="FQ1" s="52">
+        <v>1019</v>
+      </c>
+      <c r="FR1" s="52">
+        <v>1020</v>
+      </c>
+      <c r="FS1" s="52">
+        <v>1021</v>
+      </c>
+      <c r="FT1" s="52">
+        <v>1022</v>
+      </c>
+      <c r="FU1" s="52">
+        <v>1023</v>
+      </c>
+      <c r="FV1" s="52">
+        <v>1024</v>
+      </c>
+      <c r="FW1" s="52">
+        <v>1025</v>
+      </c>
+      <c r="FX1" s="52">
+        <v>1026</v>
+      </c>
+      <c r="FY1" s="52">
+        <v>1027</v>
+      </c>
+      <c r="FZ1" s="52">
+        <v>1028</v>
+      </c>
+      <c r="GA1" s="52">
+        <v>1029</v>
+      </c>
+      <c r="GB1" s="52">
+        <v>1030</v>
+      </c>
+      <c r="GC1" s="52">
+        <v>1031</v>
+      </c>
+      <c r="GD1" s="52">
+        <v>1032</v>
+      </c>
+      <c r="GE1" s="52">
+        <v>1033</v>
+      </c>
+      <c r="GF1" s="52">
+        <v>1034</v>
+      </c>
+      <c r="GG1" s="52">
+        <v>1035</v>
+      </c>
+      <c r="GH1" s="52">
+        <v>1036</v>
+      </c>
+      <c r="GI1" s="52">
+        <v>1037</v>
+      </c>
+      <c r="GJ1" s="52">
+        <v>1038</v>
+      </c>
+      <c r="GK1" s="53">
+        <v>1039</v>
+      </c>
+      <c r="GL1" s="51">
+        <v>1040</v>
+      </c>
+      <c r="GM1" s="52">
+        <v>1041</v>
+      </c>
+      <c r="GN1" s="52">
+        <v>1042</v>
+      </c>
+      <c r="GO1" s="52">
+        <v>1043</v>
+      </c>
+      <c r="GP1" s="52">
+        <v>1044</v>
+      </c>
+      <c r="GQ1" s="52">
+        <v>1045</v>
+      </c>
+      <c r="GR1" s="52">
+        <v>1046</v>
+      </c>
+      <c r="GS1" s="52">
+        <v>1047</v>
+      </c>
+      <c r="GT1" s="52">
+        <v>1048</v>
+      </c>
+      <c r="GU1" s="52">
+        <v>1049</v>
+      </c>
+      <c r="GV1" s="52">
+        <v>1050</v>
+      </c>
+      <c r="GW1" s="52">
+        <v>1051</v>
+      </c>
+      <c r="GX1" s="52">
+        <v>1052</v>
+      </c>
+      <c r="GY1" s="52">
+        <v>1053</v>
+      </c>
+      <c r="GZ1" s="52">
+        <v>1054</v>
+      </c>
+      <c r="HA1" s="52">
+        <v>1055</v>
+      </c>
+      <c r="HB1" s="52">
+        <v>1056</v>
+      </c>
+      <c r="HC1" s="52">
+        <v>1057</v>
+      </c>
+      <c r="HD1" s="52">
+        <v>1058</v>
+      </c>
+      <c r="HE1" s="52">
+        <v>1059</v>
+      </c>
+      <c r="HF1" s="52">
+        <v>1060</v>
+      </c>
+      <c r="HG1" s="52">
+        <v>1061</v>
+      </c>
+      <c r="HH1" s="52">
+        <v>1062</v>
+      </c>
+      <c r="HI1" s="53">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="2" spans="1:303" x14ac:dyDescent="0.25">
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8">
+        <v>13</v>
+      </c>
+      <c r="O2" s="8">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>16</v>
+      </c>
+      <c r="R2" s="8">
+        <v>17</v>
+      </c>
+      <c r="S2" s="8">
+        <v>18</v>
+      </c>
+      <c r="T2" s="8">
+        <v>19</v>
+      </c>
+      <c r="U2" s="8">
+        <v>20</v>
+      </c>
+      <c r="V2" s="8">
+        <v>21</v>
+      </c>
+      <c r="W2" s="8">
+        <v>22</v>
+      </c>
+      <c r="X2" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="25"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8"/>
+      <c r="DK2" s="8"/>
+      <c r="DL2" s="8"/>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8"/>
+      <c r="DQ2" s="26"/>
+      <c r="DR2" s="25"/>
+      <c r="DS2" s="8"/>
+      <c r="DT2" s="8"/>
+      <c r="DU2" s="8"/>
+      <c r="DV2" s="8"/>
+      <c r="DW2" s="8"/>
+      <c r="DX2" s="8"/>
+      <c r="DY2" s="8"/>
+      <c r="DZ2" s="8"/>
+      <c r="EA2" s="8"/>
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="8"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
+      <c r="EH2" s="8"/>
+      <c r="EI2" s="8"/>
+      <c r="EJ2" s="8"/>
+      <c r="EK2" s="8"/>
+      <c r="EL2" s="8"/>
+      <c r="EM2" s="8"/>
+      <c r="EN2" s="8"/>
+      <c r="EO2" s="26"/>
+      <c r="EP2" s="25"/>
+      <c r="EQ2" s="8"/>
+      <c r="ER2" s="8"/>
+      <c r="ES2" s="8"/>
+      <c r="ET2" s="8"/>
+      <c r="EU2" s="8"/>
+      <c r="EV2" s="8"/>
+      <c r="EW2" s="8"/>
+      <c r="EX2" s="8"/>
+      <c r="EY2" s="8"/>
+      <c r="EZ2" s="8"/>
+      <c r="FA2" s="8"/>
+      <c r="FB2" s="8"/>
+      <c r="FC2" s="8"/>
+      <c r="FD2" s="8"/>
+      <c r="FE2" s="8"/>
+      <c r="FF2" s="8"/>
+      <c r="FG2" s="8"/>
+      <c r="FH2" s="8"/>
+      <c r="FI2" s="8"/>
+      <c r="FJ2" s="8"/>
+      <c r="FK2" s="8"/>
+      <c r="FL2" s="8"/>
+      <c r="FM2" s="26"/>
+      <c r="FN2" s="25"/>
+      <c r="FO2" s="8"/>
+      <c r="FP2" s="8"/>
+      <c r="FQ2" s="8"/>
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8"/>
+      <c r="FT2" s="8"/>
+      <c r="FU2" s="8"/>
+      <c r="FV2" s="8"/>
+      <c r="FW2" s="8"/>
+      <c r="FX2" s="8"/>
+      <c r="FY2" s="8"/>
+      <c r="FZ2" s="8"/>
+      <c r="GA2" s="8"/>
+      <c r="GB2" s="8"/>
+      <c r="GC2" s="8"/>
+      <c r="GD2" s="8"/>
+      <c r="GE2" s="8"/>
+      <c r="GF2" s="8"/>
+      <c r="GG2" s="8"/>
+      <c r="GH2" s="8"/>
+      <c r="GI2" s="8"/>
+      <c r="GJ2" s="8"/>
+      <c r="GK2" s="26"/>
+      <c r="GL2" s="25"/>
+      <c r="GM2" s="8"/>
+      <c r="GN2" s="8"/>
+      <c r="GO2" s="8"/>
+      <c r="GP2" s="8"/>
+      <c r="GQ2" s="8"/>
+      <c r="GR2" s="8"/>
+      <c r="GS2" s="8"/>
+      <c r="GT2" s="8"/>
+      <c r="GU2" s="8"/>
+      <c r="GV2" s="8"/>
+      <c r="GW2" s="8"/>
+      <c r="GX2" s="8"/>
+      <c r="GY2" s="8"/>
+      <c r="GZ2" s="8"/>
+      <c r="HA2" s="8"/>
+      <c r="HB2" s="8"/>
+      <c r="HC2" s="8"/>
+      <c r="HD2" s="8"/>
+      <c r="HE2" s="8"/>
+      <c r="HF2" s="8"/>
+      <c r="HG2" s="8"/>
+      <c r="HH2" s="8"/>
+      <c r="HI2" s="26"/>
+    </row>
+    <row r="3" spans="1:303" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="20" t="str">
+        <f>MID($A3,COLUMNS($A$3:A$3),1)</f>
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:B$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:C$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:D$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:E$3),1)</f>
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:F$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:G$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:H$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:I$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:J$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:K$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:L$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:M$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:N$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:O$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:P$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:Q$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:R$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:S$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="U3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:T$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:U$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="W3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:V$3),1)</f>
+        <v>7</v>
+      </c>
+      <c r="X3" s="58" t="str">
+        <f>MID($A3,COLUMNS($A$3:W$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:X$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:Y$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:Z$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AA$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AB$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AC$3),1)</f>
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="AE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AD$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AE$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AF$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AG$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AH$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AI$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AJ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AK$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AM3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AL$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AM$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AO3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AN$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AO$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AQ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AP$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AR3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AQ$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="AS3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AR$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AS$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="AU3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AT$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="AV3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AU$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AW3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:AV$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AX3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:AW$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AX$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AY$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:AZ$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BA$3),1)</f>
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="BC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BB$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="BD3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BC$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BD$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BE$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BF$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BG$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BI3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BH$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BJ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BI$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BJ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BL3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BK$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BM3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BL$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BN3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BM$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BO3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BN$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="BP3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BO$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="BQ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BP$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="BR3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BQ$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="BS3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BR$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="BT3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BS$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="BU3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:BT$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="BV3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:BU$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="BW3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BV$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="BX3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BW$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="BY3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BX$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BY$3),1)</f>
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="CA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:BZ$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="CB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CA$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CB$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CD3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CC$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CD$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CE$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CF$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CG$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CI3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CH$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CJ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CI$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CK3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CJ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CL3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CK$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CM3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CL$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="CN3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CM$3),1)</f>
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="CO3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CN$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="CP3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CO$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="CQ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CP$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="CR3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CQ$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="CS3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:CR$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="CT3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:CS$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="CU3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CT$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="CV3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CU$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="CW3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CV$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="CX3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CW$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="CY3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CX$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CY$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:CZ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DA$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DB$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DD3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DC$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DD$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DE$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DF$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DG$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DI3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DH$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DJ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DI$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DK3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DJ$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="DL3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DK$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="DM3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DL$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="DN3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DM$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="DO3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DN$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="DP3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DO$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="DQ3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:DP$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="DR3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:DQ$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="DS3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DR$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="DT3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DS$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="DU3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DT$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="DV3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DU$3),1)</f>
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="DW3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DV$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="DX3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DW$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DY3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DX$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DZ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DY$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:DZ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EA$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EB$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="ED3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EC$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:ED$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EE$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EF$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EG$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EI3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EH$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="EJ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EI$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="EK3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EJ$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="EL3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EK$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="EM3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EL$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="EN3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EM$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="EO3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:EN$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="EP3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:EO$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EP$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="ER3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EQ$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="ES3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:ER$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="ET3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:ES$3),1)</f>
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="EU3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:ET$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="EV3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EU$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EW3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EV$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EX3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EW$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EY3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EX$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EZ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EY$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:EZ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FA$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FB$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FD3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FC$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FD$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FE$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FF$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="FH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FG$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="FI3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FH$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="FJ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FI$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="FK3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FJ$3),1)</f>
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="FL3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FK$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="FM3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:FL$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="FN3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:FM$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="FO3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FN$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="FP3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FO$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FP$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="FR3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FQ$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="FS3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FR$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="FT3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FS$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FU3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FT$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FV3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FU$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FW3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FV$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FX3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FW$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FY3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FX$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="FZ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FY$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:FZ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GA$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GB$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GD3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GC$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GD$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="GF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GE$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="GG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GF$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="GH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GG$3),1)</f>
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="GI3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GH$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="GJ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GI$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="GK3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:GJ$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="GL3" s="25" t="str">
+        <f>MID($A3,COLUMNS($A$3:GK$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="GM3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GL$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="GN3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GM$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="GO3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GN$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="GP3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GO$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="GQ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GP$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="GR3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GQ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GS3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GR$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GT3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GS$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GU3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GT$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GV3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GU$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GW3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GV$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GX3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GW$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GY3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GX$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="GZ3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GY$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="HA3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:GZ$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="HB3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:HA$3),1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="HC3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:HB$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="HD3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:HC$3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="HE3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:HD$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="HF3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:HE$3),1)</f>
+        <v>9</v>
+      </c>
+      <c r="HG3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:HF$3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="HH3" s="8" t="str">
+        <f>MID($A3,COLUMNS($A$3:HG$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="HI3" s="26" t="str">
+        <f>MID($A3,COLUMNS($A$3:HH$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="HJ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HI$3),1)</f>
+        <v/>
+      </c>
+      <c r="HK3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HJ$3),1)</f>
+        <v/>
+      </c>
+      <c r="HL3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HK$3),1)</f>
+        <v/>
+      </c>
+      <c r="HM3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HL$3),1)</f>
+        <v/>
+      </c>
+      <c r="HN3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HM$3),1)</f>
+        <v/>
+      </c>
+      <c r="HO3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HN$3),1)</f>
+        <v/>
+      </c>
+      <c r="HP3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HO$3),1)</f>
+        <v/>
+      </c>
+      <c r="HQ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HP$3),1)</f>
+        <v/>
+      </c>
+      <c r="HR3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HQ$3),1)</f>
+        <v/>
+      </c>
+      <c r="HS3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HR$3),1)</f>
+        <v/>
+      </c>
+      <c r="HT3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HS$3),1)</f>
+        <v/>
+      </c>
+      <c r="HU3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HT$3),1)</f>
+        <v/>
+      </c>
+      <c r="HV3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HU$3),1)</f>
+        <v/>
+      </c>
+      <c r="HW3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HV$3),1)</f>
+        <v/>
+      </c>
+      <c r="HX3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HW$3),1)</f>
+        <v/>
+      </c>
+      <c r="HY3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HX$3),1)</f>
+        <v/>
+      </c>
+      <c r="HZ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HY$3),1)</f>
+        <v/>
+      </c>
+      <c r="IA3" t="str">
+        <f>MID($A3,COLUMNS($A$3:HZ$3),1)</f>
+        <v/>
+      </c>
+      <c r="IB3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IA$3),1)</f>
+        <v/>
+      </c>
+      <c r="IC3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IB$3),1)</f>
+        <v/>
+      </c>
+      <c r="ID3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IC$3),1)</f>
+        <v/>
+      </c>
+      <c r="IE3" t="str">
+        <f>MID($A3,COLUMNS($A$3:ID$3),1)</f>
+        <v/>
+      </c>
+      <c r="IF3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IE$3),1)</f>
+        <v/>
+      </c>
+      <c r="IG3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IF$3),1)</f>
+        <v/>
+      </c>
+      <c r="IH3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IG$3),1)</f>
+        <v/>
+      </c>
+      <c r="II3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IH$3),1)</f>
+        <v/>
+      </c>
+      <c r="IJ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:II$3),1)</f>
+        <v/>
+      </c>
+      <c r="IK3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IJ$3),1)</f>
+        <v/>
+      </c>
+      <c r="IL3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IK$3),1)</f>
+        <v/>
+      </c>
+      <c r="IM3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IL$3),1)</f>
+        <v/>
+      </c>
+      <c r="IN3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IM$3),1)</f>
+        <v/>
+      </c>
+      <c r="IO3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IN$3),1)</f>
+        <v/>
+      </c>
+      <c r="IP3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IO$3),1)</f>
+        <v/>
+      </c>
+      <c r="IQ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IP$3),1)</f>
+        <v/>
+      </c>
+      <c r="IR3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IQ$3),1)</f>
+        <v/>
+      </c>
+      <c r="IS3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IR$3),1)</f>
+        <v/>
+      </c>
+      <c r="IT3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IS$3),1)</f>
+        <v/>
+      </c>
+      <c r="IU3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IT$3),1)</f>
+        <v/>
+      </c>
+      <c r="IV3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IU$3),1)</f>
+        <v/>
+      </c>
+      <c r="IW3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IV$3),1)</f>
+        <v/>
+      </c>
+      <c r="IX3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IW$3),1)</f>
+        <v/>
+      </c>
+      <c r="IY3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IX$3),1)</f>
+        <v/>
+      </c>
+      <c r="IZ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IY$3),1)</f>
+        <v/>
+      </c>
+      <c r="JA3" t="str">
+        <f>MID($A3,COLUMNS($A$3:IZ$3),1)</f>
+        <v/>
+      </c>
+      <c r="JB3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JA$3),1)</f>
+        <v/>
+      </c>
+      <c r="JC3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JB$3),1)</f>
+        <v/>
+      </c>
+      <c r="JD3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JC$3),1)</f>
+        <v/>
+      </c>
+      <c r="JE3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JD$3),1)</f>
+        <v/>
+      </c>
+      <c r="JF3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JE$3),1)</f>
+        <v/>
+      </c>
+      <c r="JG3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JF$3),1)</f>
+        <v/>
+      </c>
+      <c r="JH3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JG$3),1)</f>
+        <v/>
+      </c>
+      <c r="JI3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JH$3),1)</f>
+        <v/>
+      </c>
+      <c r="JJ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JI$3),1)</f>
+        <v/>
+      </c>
+      <c r="JK3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JJ$3),1)</f>
+        <v/>
+      </c>
+      <c r="JL3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JK$3),1)</f>
+        <v/>
+      </c>
+      <c r="JM3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JL$3),1)</f>
+        <v/>
+      </c>
+      <c r="JN3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JM$3),1)</f>
+        <v/>
+      </c>
+      <c r="JO3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JN$3),1)</f>
+        <v/>
+      </c>
+      <c r="JP3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JO$3),1)</f>
+        <v/>
+      </c>
+      <c r="JQ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JP$3),1)</f>
+        <v/>
+      </c>
+      <c r="JR3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JQ$3),1)</f>
+        <v/>
+      </c>
+      <c r="JS3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JR$3),1)</f>
+        <v/>
+      </c>
+      <c r="JT3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JS$3),1)</f>
+        <v/>
+      </c>
+      <c r="JU3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JT$3),1)</f>
+        <v/>
+      </c>
+      <c r="JV3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JU$3),1)</f>
+        <v/>
+      </c>
+      <c r="JW3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JV$3),1)</f>
+        <v/>
+      </c>
+      <c r="JX3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JW$3),1)</f>
+        <v/>
+      </c>
+      <c r="JY3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JX$3),1)</f>
+        <v/>
+      </c>
+      <c r="JZ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JY$3),1)</f>
+        <v/>
+      </c>
+      <c r="KA3" t="str">
+        <f>MID($A3,COLUMNS($A$3:JZ$3),1)</f>
+        <v/>
+      </c>
+      <c r="KB3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KA$3),1)</f>
+        <v/>
+      </c>
+      <c r="KC3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KB$3),1)</f>
+        <v/>
+      </c>
+      <c r="KD3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KC$3),1)</f>
+        <v/>
+      </c>
+      <c r="KE3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KD$3),1)</f>
+        <v/>
+      </c>
+      <c r="KF3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KE$3),1)</f>
+        <v/>
+      </c>
+      <c r="KG3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KF$3),1)</f>
+        <v/>
+      </c>
+      <c r="KH3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KG$3),1)</f>
+        <v/>
+      </c>
+      <c r="KI3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KH$3),1)</f>
+        <v/>
+      </c>
+      <c r="KJ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KI$3),1)</f>
+        <v/>
+      </c>
+      <c r="KK3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KJ$3),1)</f>
+        <v/>
+      </c>
+      <c r="KL3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KK$3),1)</f>
+        <v/>
+      </c>
+      <c r="KM3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KL$3),1)</f>
+        <v/>
+      </c>
+      <c r="KN3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KM$3),1)</f>
+        <v/>
+      </c>
+      <c r="KO3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KN$3),1)</f>
+        <v/>
+      </c>
+      <c r="KP3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KO$3),1)</f>
+        <v/>
+      </c>
+      <c r="KQ3" t="str">
+        <f>MID($A3,COLUMNS($A$3:KP$3),1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:303" s="44" customFormat="1" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="45" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y4" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW4" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="46"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="BI4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="46"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="47"/>
+      <c r="BT4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU4" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="BW4" s="46"/>
+      <c r="BX4" s="46"/>
+      <c r="BY4" s="46"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC4" s="46"/>
+      <c r="CD4" s="46"/>
+      <c r="CE4" s="47"/>
+      <c r="CF4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="CH4" s="46"/>
+      <c r="CI4" s="46"/>
+      <c r="CJ4" s="46"/>
+      <c r="CK4" s="47"/>
+      <c r="CL4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="CM4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="CN4" s="46"/>
+      <c r="CO4" s="46"/>
+      <c r="CP4" s="46"/>
+      <c r="CQ4" s="47"/>
+      <c r="CR4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="CS4" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="CT4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="CU4" s="46"/>
+      <c r="CV4" s="46"/>
+      <c r="CW4" s="46"/>
+      <c r="CX4" s="47"/>
+      <c r="CY4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="CZ4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA4" s="46"/>
+      <c r="DB4" s="46"/>
+      <c r="DC4" s="47"/>
+      <c r="DD4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="DE4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="DF4" s="46"/>
+      <c r="DG4" s="46"/>
+      <c r="DH4" s="46"/>
+      <c r="DI4" s="47"/>
+      <c r="DJ4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="DK4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL4" s="46"/>
+      <c r="DM4" s="46"/>
+      <c r="DN4" s="46"/>
+      <c r="DO4" s="47"/>
+      <c r="DP4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ4" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="DR4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="DS4" s="46"/>
+      <c r="DT4" s="46"/>
+      <c r="DU4" s="46"/>
+      <c r="DV4" s="47"/>
+      <c r="DW4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="DX4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="DY4" s="46"/>
+      <c r="DZ4" s="46"/>
+      <c r="EA4" s="47"/>
+      <c r="EB4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="EC4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="ED4" s="46"/>
+      <c r="EE4" s="46"/>
+      <c r="EF4" s="46"/>
+      <c r="EG4" s="47"/>
+      <c r="EH4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="EI4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="EJ4" s="46"/>
+      <c r="EK4" s="46"/>
+      <c r="EL4" s="46"/>
+      <c r="EM4" s="47"/>
+      <c r="EN4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="EO4" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="EP4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="EQ4" s="46"/>
+      <c r="ER4" s="46"/>
+      <c r="ES4" s="46"/>
+      <c r="ET4" s="47"/>
+      <c r="EU4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="EV4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="EW4" s="46"/>
+      <c r="EX4" s="46"/>
+      <c r="EY4" s="47"/>
+      <c r="EZ4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="FA4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="FB4" s="46"/>
+      <c r="FC4" s="46"/>
+      <c r="FD4" s="46"/>
+      <c r="FE4" s="47"/>
+      <c r="FF4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="FG4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="FH4" s="46"/>
+      <c r="FI4" s="46"/>
+      <c r="FJ4" s="46"/>
+      <c r="FK4" s="47"/>
+      <c r="FL4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="FM4" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="FN4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="FO4" s="46"/>
+      <c r="FP4" s="46"/>
+      <c r="FQ4" s="46"/>
+      <c r="FR4" s="47"/>
+      <c r="FS4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="FT4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="FU4" s="46"/>
+      <c r="FV4" s="46"/>
+      <c r="FW4" s="47"/>
+      <c r="FX4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="FY4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="FZ4" s="46"/>
+      <c r="GA4" s="46"/>
+      <c r="GB4" s="46"/>
+      <c r="GC4" s="47"/>
+      <c r="GD4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="GE4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="GF4" s="46"/>
+      <c r="GG4" s="46"/>
+      <c r="GH4" s="46"/>
+      <c r="GI4" s="47"/>
+      <c r="GJ4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="GK4" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="GL4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="GM4" s="46"/>
+      <c r="GN4" s="46"/>
+      <c r="GO4" s="46"/>
+      <c r="GP4" s="47"/>
+      <c r="GQ4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="GR4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="GS4" s="46"/>
+      <c r="GT4" s="46"/>
+      <c r="GU4" s="47"/>
+      <c r="GV4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="GW4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="GX4" s="46"/>
+      <c r="GY4" s="46"/>
+      <c r="GZ4" s="46"/>
+      <c r="HA4" s="47"/>
+      <c r="HB4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="HC4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="HD4" s="46"/>
+      <c r="HE4" s="46"/>
+      <c r="HF4" s="46"/>
+      <c r="HG4" s="47"/>
+      <c r="HH4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="HI4" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG19" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,6 +7045,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -5193,27 +7287,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5230,29 +7329,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evri.sharepoint.com/sites/ukho-meds/Shared Documents/MEDS DB/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B1CA6BC-F4F9-4FDB-B855-658BA4BB4132}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" activeTab="1" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="5" r:id="rId1"/>
-    <sheet name="PROFILE_INDEX" sheetId="2" r:id="rId2"/>
-    <sheet name="PROFILE_HEADER" sheetId="3" r:id="rId3"/>
-    <sheet name="PROFILE_DATA" sheetId="4" r:id="rId4"/>
-    <sheet name="DEPTH LEVELS" sheetId="6" r:id="rId5"/>
+    <sheet name="PROFILE_INDEX" sheetId="2" r:id="rId1"/>
+    <sheet name="PROFILE_HEADER" sheetId="3" r:id="rId2"/>
+    <sheet name="PROFILE_DATA" sheetId="4" r:id="rId3"/>
+    <sheet name="DEPTH LEVELS" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="184">
   <si>
     <t>RECORDNUMBER</t>
   </si>
@@ -529,9 +528,6 @@
     <t xml:space="preserve">Table </t>
   </si>
   <si>
-    <t>Do SERD observations add to OBSERVATION table? (could not find any of the sample jobs)</t>
-  </si>
-  <si>
     <t>000011           1509711000021           1509811000031           1509811000041           1509811000051           1509811000061           1509811000071           1509811000081           1509811000091           1509811</t>
   </si>
   <si>
@@ -559,12 +555,6 @@
     <t>SOUND VELOCITY CODE</t>
   </si>
   <si>
-    <t>01-MAY-24 10.50.54.851624000</t>
-  </si>
-  <si>
-    <t>01-MAY-24 10.50.55.992585000</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -578,15 +568,24 @@
   </si>
   <si>
     <t>Calculated from LAT/LON</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>JOB_NUMBER</t>
+  </si>
+  <si>
+    <t>Row Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yy\ hh\.m\i\.ss.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,7 +949,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -962,9 +960,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,22 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,8 +1002,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,37 +1352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF416807-1578-4EC3-8E4D-DB242418A5D2}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
-  <dimension ref="A1:L67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,16 +1368,16 @@
     <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1400,13 +1389,14 @@
       <c r="F1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1425,14 +1415,17 @@
       <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1451,14 +1444,17 @@
       <c r="G3" s="17">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1472,22 +1468,20 @@
         <v>149</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1506,17 +1500,17 @@
       <c r="G5" s="17">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1535,14 +1529,15 @@
       <c r="G6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1561,14 +1556,17 @@
       <c r="G7" s="17">
         <v>6</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1587,14 +1585,17 @@
       <c r="G8" s="17">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1613,14 +1614,17 @@
       <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1639,14 +1643,17 @@
       <c r="G10" s="17">
         <v>9</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1665,14 +1672,17 @@
       <c r="G11" s="17">
         <v>10</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1691,14 +1701,17 @@
       <c r="G12" s="17">
         <v>11</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="J12" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1717,14 +1730,17 @@
       <c r="G13" s="17">
         <v>12</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1743,14 +1759,17 @@
       <c r="G14" s="17">
         <v>13</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1769,14 +1788,17 @@
       <c r="G15" s="17">
         <v>14</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1784,39 +1806,45 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G16" s="17">
         <v>15</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="52" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="17">
         <v>16</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1835,14 +1863,17 @@
       <c r="G18" s="17">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1850,86 +1881,92 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G19" s="17">
         <v>18</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G20" s="17">
         <v>19</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="58"/>
+      <c r="I20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G21" s="17">
         <v>20</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="58"/>
+      <c r="I21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G22" s="17">
         <v>21</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="58"/>
+      <c r="I22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="6" t="s">
         <v>146</v>
       </c>
@@ -1940,23 +1977,26 @@
         <v>146</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G23" s="17">
         <v>22</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -1966,90 +2006,93 @@
       <c r="G24" s="19">
         <v>23</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="B29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="B30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="B31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2206,7 +2249,1710 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748F7A6-9708-4A82-9ADC-4118F011AC82}">
+  <dimension ref="A1:N67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="58">
+        <v>35</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="17">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="58">
+        <v>81</v>
+      </c>
+      <c r="F3" s="17">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="17">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="17">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="17">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="17">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="17">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="17">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="17">
+        <v>4</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="17">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="17">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="17">
+        <v>5</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="58">
+        <v>123</v>
+      </c>
+      <c r="F7" s="17">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="17">
+        <v>18</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="17">
+        <v>8</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="58">
+        <v>121</v>
+      </c>
+      <c r="F8" s="17">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="17">
+        <v>22</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="17">
+        <v>7</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="58">
+        <v>129</v>
+      </c>
+      <c r="F9" s="17">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="17">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="17">
+        <v>14</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="58">
+        <v>125</v>
+      </c>
+      <c r="F10" s="17">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="17">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="17">
+        <v>11</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="58">
+        <v>138</v>
+      </c>
+      <c r="F11" s="17">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="17">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="17">
+        <v>22</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="58">
+        <v>136</v>
+      </c>
+      <c r="F12" s="17">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="17">
+        <v>19</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="17">
+        <v>19</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="58">
+        <v>151</v>
+      </c>
+      <c r="F13" s="17">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="58">
+        <v>101</v>
+      </c>
+      <c r="F14" s="17">
+        <v>13</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="17">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="17">
+        <v>12</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="58">
+        <v>105</v>
+      </c>
+      <c r="F15" s="17">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="17">
+        <v>7</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="17">
+        <v>9</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="58">
+        <v>140</v>
+      </c>
+      <c r="F16" s="17">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="17">
+        <v>13</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="17">
+        <v>21</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="58">
+        <v>150</v>
+      </c>
+      <c r="F17" s="17">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="58">
+        <v>74</v>
+      </c>
+      <c r="F18" s="17">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="17">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="17">
+        <v>13</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="58">
+        <v>155</v>
+      </c>
+      <c r="F19" s="17">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="58">
+        <v>157</v>
+      </c>
+      <c r="F20" s="17">
+        <v>19</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="17">
+        <v>12</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="17">
+        <v>18</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="58">
+        <v>145</v>
+      </c>
+      <c r="F21" s="17">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="17">
+        <v>11</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="17">
+        <v>17</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="58">
+        <v>158</v>
+      </c>
+      <c r="F22" s="17">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="58">
+        <v>159</v>
+      </c>
+      <c r="F23" s="17">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="58">
+        <v>134</v>
+      </c>
+      <c r="F24" s="17">
+        <v>23</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="17">
+        <v>14</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="17">
+        <v>16</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="58">
+        <v>135</v>
+      </c>
+      <c r="F25" s="17">
+        <v>24</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="17">
+        <v>16</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="17">
+        <v>15</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="58">
+        <v>133</v>
+      </c>
+      <c r="F26" s="17">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="17">
+        <v>20</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="17">
+        <v>6</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="58">
+        <v>112</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="17">
+        <v>6</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="17">
+        <v>20</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="58">
+        <v>108</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="17">
+        <v>8</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="17">
+        <v>10</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="58">
+        <v>149</v>
+      </c>
+      <c r="F29" s="17">
+        <v>26</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="17">
+        <v>23</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="17">
+        <v>23</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="58">
+        <v>33</v>
+      </c>
+      <c r="F30" s="17">
+        <v>27</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="17">
+        <v>24</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="17">
+        <v>24</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="58">
+        <v>34</v>
+      </c>
+      <c r="F31" s="17">
+        <v>28</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="17">
+        <v>25</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" s="17">
+        <v>25</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="58">
+        <v>120</v>
+      </c>
+      <c r="F32" s="17">
+        <v>29</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="17">
+        <v>26</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="17">
+        <v>26</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="58">
+        <v>119</v>
+      </c>
+      <c r="F33" s="17">
+        <v>30</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="17">
+        <v>27</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="17">
+        <v>27</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="58">
+        <v>115</v>
+      </c>
+      <c r="F34" s="17">
+        <v>31</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="17">
+        <v>28</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="17">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="58">
+        <v>118</v>
+      </c>
+      <c r="F35" s="17">
+        <v>32</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="17">
+        <v>29</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="17">
+        <v>29</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="58">
+        <v>8</v>
+      </c>
+      <c r="F36" s="17">
+        <v>33</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="17">
+        <v>30</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17">
+        <v>30</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="19">
+        <v>34</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="19">
+        <v>31</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="19">
+        <v>31</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2214,1470 +3960,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748F7A6-9708-4A82-9ADC-4118F011AC82}">
-  <dimension ref="A1:M67"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="17">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="17">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="17">
-        <v>2</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="17">
-        <v>2</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="17">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="17">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="17">
-        <v>3</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="17">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="17">
-        <v>4</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="17">
-        <v>4</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="17">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="17">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="17">
-        <v>5</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="17">
-        <v>18</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="17">
-        <v>8</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="E8" s="17">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="17">
-        <v>22</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="17">
-        <v>7</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="17">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="17">
-        <v>21</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="17">
-        <v>14</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="17">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="17">
-        <v>15</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="17">
-        <v>11</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="17">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="17">
-        <v>17</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="17">
-        <v>22</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="17">
-        <v>11</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="17">
-        <v>19</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="17">
-        <v>19</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="17">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="17">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="17">
-        <v>9</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="17">
-        <v>12</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="17">
-        <v>14</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="17">
-        <v>7</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="17">
-        <v>9</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="17">
-        <v>15</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="17">
-        <v>13</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="17">
-        <v>21</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="17">
-        <v>16</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="17">
-        <v>17</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="17">
-        <v>10</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="17">
-        <v>13</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="17">
-        <v>18</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="17">
-        <v>19</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="17">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="17">
-        <v>18</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="17">
-        <v>20</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="17">
-        <v>11</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="17">
-        <v>17</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="17">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="17">
-        <v>22</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="17">
-        <v>23</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="17">
-        <v>14</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="17">
-        <v>16</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="17">
-        <v>24</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="17">
-        <v>16</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="17">
-        <v>15</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="17">
-        <v>25</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="17">
-        <v>20</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="17">
-        <v>6</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="17">
-        <v>6</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" s="17">
-        <v>20</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="17">
-        <v>8</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K28" s="17">
-        <v>10</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="17">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="17">
-        <v>23</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="17">
-        <v>23</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="17">
-        <v>27</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="17">
-        <v>24</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30" s="17">
-        <v>24</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="17">
-        <v>28</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="17">
-        <v>25</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="17">
-        <v>25</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="17">
-        <v>29</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="17">
-        <v>26</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K32" s="17">
-        <v>26</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="17">
-        <v>30</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="17">
-        <v>27</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K33" s="17">
-        <v>27</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="17">
-        <v>31</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="17">
-        <v>28</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K34" s="17">
-        <v>28</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="17">
-        <v>32</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="17">
-        <v>29</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K35" s="17">
-        <v>29</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="17">
-        <v>33</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="17">
-        <v>30</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="17">
-        <v>30</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="19">
-        <v>34</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="19">
-        <v>31</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K37" s="19">
-        <v>31</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="30"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B55925D-514D-40B6-9C15-4DD8370C08AF}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3703,39 +3989,39 @@
         <v>145</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -3767,13 +4053,13 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -3805,13 +4091,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -3835,7 +4121,7 @@
       <c r="L4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3843,13 +4129,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3873,7 +4159,7 @@
       <c r="L5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3881,13 +4167,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -3919,13 +4205,13 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -3957,13 +4243,13 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>7</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -3987,7 +4273,7 @@
       <c r="L8" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3995,13 +4281,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>8</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -4033,13 +4319,13 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -4063,7 +4349,7 @@
       <c r="L10" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4071,13 +4357,13 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>10</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -4101,7 +4387,7 @@
       <c r="L11" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4109,13 +4395,13 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>853</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -4147,13 +4433,13 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -4177,7 +4463,7 @@
       <c r="L13" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4185,19 +4471,19 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="E14" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>148</v>
       </c>
       <c r="H14" s="19">
@@ -4206,16 +4492,16 @@
       <c r="I14" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" s="35" t="s">
+      <c r="K14" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4265,65 +4551,65 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4486,10 +4772,10 @@
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -4512,7 +4798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060310E-1F88-4686-9470-C12E54B461AB}">
   <dimension ref="A1:KQ19"/>
   <sheetViews>
@@ -4528,652 +4814,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:303" x14ac:dyDescent="0.25">
-      <c r="B1" s="49">
+      <c r="B1" s="42">
         <v>848</v>
       </c>
-      <c r="C1" s="50">
+      <c r="C1" s="43">
         <v>849</v>
       </c>
-      <c r="D1" s="50">
+      <c r="D1" s="43">
         <v>850</v>
       </c>
-      <c r="E1" s="50">
+      <c r="E1" s="43">
         <v>851</v>
       </c>
-      <c r="F1" s="50">
+      <c r="F1" s="43">
         <v>852</v>
       </c>
-      <c r="G1" s="50">
+      <c r="G1" s="43">
         <v>853</v>
       </c>
-      <c r="H1" s="50">
+      <c r="H1" s="43">
         <v>854</v>
       </c>
-      <c r="I1" s="50">
+      <c r="I1" s="43">
         <v>855</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="43">
         <v>856</v>
       </c>
-      <c r="K1" s="50">
+      <c r="K1" s="43">
         <v>857</v>
       </c>
-      <c r="L1" s="50">
+      <c r="L1" s="43">
         <v>858</v>
       </c>
-      <c r="M1" s="50">
+      <c r="M1" s="43">
         <v>859</v>
       </c>
-      <c r="N1" s="50">
+      <c r="N1" s="43">
         <v>860</v>
       </c>
-      <c r="O1" s="50">
+      <c r="O1" s="43">
         <v>861</v>
       </c>
-      <c r="P1" s="50">
+      <c r="P1" s="43">
         <v>862</v>
       </c>
-      <c r="Q1" s="50">
+      <c r="Q1" s="43">
         <v>863</v>
       </c>
-      <c r="R1" s="50">
+      <c r="R1" s="43">
         <v>864</v>
       </c>
-      <c r="S1" s="50">
+      <c r="S1" s="43">
         <v>865</v>
       </c>
-      <c r="T1" s="50">
+      <c r="T1" s="43">
         <v>866</v>
       </c>
-      <c r="U1" s="50">
+      <c r="U1" s="43">
         <v>867</v>
       </c>
-      <c r="V1" s="50">
+      <c r="V1" s="43">
         <v>868</v>
       </c>
-      <c r="W1" s="50">
+      <c r="W1" s="43">
         <v>869</v>
       </c>
-      <c r="X1" s="50">
+      <c r="X1" s="43">
         <v>870</v>
       </c>
-      <c r="Y1" s="50">
+      <c r="Y1" s="43">
         <v>871</v>
       </c>
-      <c r="Z1" s="51">
+      <c r="Z1" s="44">
         <v>872</v>
       </c>
-      <c r="AA1" s="52">
+      <c r="AA1" s="45">
         <v>873</v>
       </c>
-      <c r="AB1" s="52">
+      <c r="AB1" s="45">
         <v>874</v>
       </c>
-      <c r="AC1" s="52">
+      <c r="AC1" s="45">
         <v>875</v>
       </c>
-      <c r="AD1" s="52">
+      <c r="AD1" s="45">
         <v>876</v>
       </c>
-      <c r="AE1" s="52">
+      <c r="AE1" s="45">
         <v>877</v>
       </c>
-      <c r="AF1" s="52">
+      <c r="AF1" s="45">
         <v>878</v>
       </c>
-      <c r="AG1" s="52">
+      <c r="AG1" s="45">
         <v>879</v>
       </c>
-      <c r="AH1" s="52">
+      <c r="AH1" s="45">
         <v>880</v>
       </c>
-      <c r="AI1" s="52">
+      <c r="AI1" s="45">
         <v>881</v>
       </c>
-      <c r="AJ1" s="52">
+      <c r="AJ1" s="45">
         <v>882</v>
       </c>
-      <c r="AK1" s="52">
+      <c r="AK1" s="45">
         <v>883</v>
       </c>
-      <c r="AL1" s="52">
+      <c r="AL1" s="45">
         <v>884</v>
       </c>
-      <c r="AM1" s="52">
+      <c r="AM1" s="45">
         <v>885</v>
       </c>
-      <c r="AN1" s="52">
+      <c r="AN1" s="45">
         <v>886</v>
       </c>
-      <c r="AO1" s="52">
+      <c r="AO1" s="45">
         <v>887</v>
       </c>
-      <c r="AP1" s="52">
+      <c r="AP1" s="45">
         <v>888</v>
       </c>
-      <c r="AQ1" s="52">
+      <c r="AQ1" s="45">
         <v>889</v>
       </c>
-      <c r="AR1" s="52">
+      <c r="AR1" s="45">
         <v>890</v>
       </c>
-      <c r="AS1" s="52">
+      <c r="AS1" s="45">
         <v>891</v>
       </c>
-      <c r="AT1" s="52">
+      <c r="AT1" s="45">
         <v>892</v>
       </c>
-      <c r="AU1" s="52">
+      <c r="AU1" s="45">
         <v>893</v>
       </c>
-      <c r="AV1" s="52">
+      <c r="AV1" s="45">
         <v>894</v>
       </c>
-      <c r="AW1" s="53">
+      <c r="AW1" s="46">
         <v>895</v>
       </c>
-      <c r="AX1" s="51">
+      <c r="AX1" s="44">
         <v>896</v>
       </c>
-      <c r="AY1" s="52">
+      <c r="AY1" s="45">
         <v>897</v>
       </c>
-      <c r="AZ1" s="52">
+      <c r="AZ1" s="45">
         <v>898</v>
       </c>
-      <c r="BA1" s="52">
+      <c r="BA1" s="45">
         <v>899</v>
       </c>
-      <c r="BB1" s="52">
+      <c r="BB1" s="45">
         <v>900</v>
       </c>
-      <c r="BC1" s="52">
+      <c r="BC1" s="45">
         <v>901</v>
       </c>
-      <c r="BD1" s="52">
+      <c r="BD1" s="45">
         <v>902</v>
       </c>
-      <c r="BE1" s="52">
+      <c r="BE1" s="45">
         <v>903</v>
       </c>
-      <c r="BF1" s="52">
+      <c r="BF1" s="45">
         <v>904</v>
       </c>
-      <c r="BG1" s="52">
+      <c r="BG1" s="45">
         <v>905</v>
       </c>
-      <c r="BH1" s="52">
+      <c r="BH1" s="45">
         <v>906</v>
       </c>
-      <c r="BI1" s="52">
+      <c r="BI1" s="45">
         <v>907</v>
       </c>
-      <c r="BJ1" s="52">
+      <c r="BJ1" s="45">
         <v>908</v>
       </c>
-      <c r="BK1" s="52">
+      <c r="BK1" s="45">
         <v>909</v>
       </c>
-      <c r="BL1" s="52">
+      <c r="BL1" s="45">
         <v>910</v>
       </c>
-      <c r="BM1" s="52">
+      <c r="BM1" s="45">
         <v>911</v>
       </c>
-      <c r="BN1" s="52">
+      <c r="BN1" s="45">
         <v>912</v>
       </c>
-      <c r="BO1" s="52">
+      <c r="BO1" s="45">
         <v>913</v>
       </c>
-      <c r="BP1" s="52">
+      <c r="BP1" s="45">
         <v>914</v>
       </c>
-      <c r="BQ1" s="52">
+      <c r="BQ1" s="45">
         <v>915</v>
       </c>
-      <c r="BR1" s="52">
+      <c r="BR1" s="45">
         <v>916</v>
       </c>
-      <c r="BS1" s="52">
+      <c r="BS1" s="45">
         <v>917</v>
       </c>
-      <c r="BT1" s="52">
+      <c r="BT1" s="45">
         <v>918</v>
       </c>
-      <c r="BU1" s="53">
+      <c r="BU1" s="46">
         <v>919</v>
       </c>
-      <c r="BV1" s="51">
+      <c r="BV1" s="44">
         <v>920</v>
       </c>
-      <c r="BW1" s="52">
+      <c r="BW1" s="45">
         <v>921</v>
       </c>
-      <c r="BX1" s="52">
+      <c r="BX1" s="45">
         <v>922</v>
       </c>
-      <c r="BY1" s="52">
+      <c r="BY1" s="45">
         <v>923</v>
       </c>
-      <c r="BZ1" s="52">
+      <c r="BZ1" s="45">
         <v>924</v>
       </c>
-      <c r="CA1" s="52">
+      <c r="CA1" s="45">
         <v>925</v>
       </c>
-      <c r="CB1" s="52">
+      <c r="CB1" s="45">
         <v>926</v>
       </c>
-      <c r="CC1" s="52">
+      <c r="CC1" s="45">
         <v>927</v>
       </c>
-      <c r="CD1" s="52">
+      <c r="CD1" s="45">
         <v>928</v>
       </c>
-      <c r="CE1" s="52">
+      <c r="CE1" s="45">
         <v>929</v>
       </c>
-      <c r="CF1" s="52">
+      <c r="CF1" s="45">
         <v>930</v>
       </c>
-      <c r="CG1" s="52">
+      <c r="CG1" s="45">
         <v>931</v>
       </c>
-      <c r="CH1" s="52">
+      <c r="CH1" s="45">
         <v>932</v>
       </c>
-      <c r="CI1" s="52">
+      <c r="CI1" s="45">
         <v>933</v>
       </c>
-      <c r="CJ1" s="52">
+      <c r="CJ1" s="45">
         <v>934</v>
       </c>
-      <c r="CK1" s="52">
+      <c r="CK1" s="45">
         <v>935</v>
       </c>
-      <c r="CL1" s="52">
+      <c r="CL1" s="45">
         <v>936</v>
       </c>
-      <c r="CM1" s="52">
+      <c r="CM1" s="45">
         <v>937</v>
       </c>
-      <c r="CN1" s="52">
+      <c r="CN1" s="45">
         <v>938</v>
       </c>
-      <c r="CO1" s="52">
+      <c r="CO1" s="45">
         <v>939</v>
       </c>
-      <c r="CP1" s="52">
+      <c r="CP1" s="45">
         <v>940</v>
       </c>
-      <c r="CQ1" s="52">
+      <c r="CQ1" s="45">
         <v>941</v>
       </c>
-      <c r="CR1" s="52">
+      <c r="CR1" s="45">
         <v>942</v>
       </c>
-      <c r="CS1" s="53">
+      <c r="CS1" s="46">
         <v>943</v>
       </c>
-      <c r="CT1" s="51">
+      <c r="CT1" s="44">
         <v>944</v>
       </c>
-      <c r="CU1" s="52">
+      <c r="CU1" s="45">
         <v>945</v>
       </c>
-      <c r="CV1" s="52">
+      <c r="CV1" s="45">
         <v>946</v>
       </c>
-      <c r="CW1" s="52">
+      <c r="CW1" s="45">
         <v>947</v>
       </c>
-      <c r="CX1" s="52">
+      <c r="CX1" s="45">
         <v>948</v>
       </c>
-      <c r="CY1" s="52">
+      <c r="CY1" s="45">
         <v>949</v>
       </c>
-      <c r="CZ1" s="52">
+      <c r="CZ1" s="45">
         <v>950</v>
       </c>
-      <c r="DA1" s="52">
+      <c r="DA1" s="45">
         <v>951</v>
       </c>
-      <c r="DB1" s="52">
+      <c r="DB1" s="45">
         <v>952</v>
       </c>
-      <c r="DC1" s="52">
+      <c r="DC1" s="45">
         <v>953</v>
       </c>
-      <c r="DD1" s="52">
+      <c r="DD1" s="45">
         <v>954</v>
       </c>
-      <c r="DE1" s="52">
+      <c r="DE1" s="45">
         <v>955</v>
       </c>
-      <c r="DF1" s="52">
+      <c r="DF1" s="45">
         <v>956</v>
       </c>
-      <c r="DG1" s="52">
+      <c r="DG1" s="45">
         <v>957</v>
       </c>
-      <c r="DH1" s="52">
+      <c r="DH1" s="45">
         <v>958</v>
       </c>
-      <c r="DI1" s="52">
+      <c r="DI1" s="45">
         <v>959</v>
       </c>
-      <c r="DJ1" s="52">
+      <c r="DJ1" s="45">
         <v>960</v>
       </c>
-      <c r="DK1" s="52">
+      <c r="DK1" s="45">
         <v>961</v>
       </c>
-      <c r="DL1" s="52">
+      <c r="DL1" s="45">
         <v>962</v>
       </c>
-      <c r="DM1" s="52">
+      <c r="DM1" s="45">
         <v>963</v>
       </c>
-      <c r="DN1" s="52">
+      <c r="DN1" s="45">
         <v>964</v>
       </c>
-      <c r="DO1" s="52">
+      <c r="DO1" s="45">
         <v>965</v>
       </c>
-      <c r="DP1" s="52">
+      <c r="DP1" s="45">
         <v>966</v>
       </c>
-      <c r="DQ1" s="53">
+      <c r="DQ1" s="46">
         <v>967</v>
       </c>
-      <c r="DR1" s="51">
+      <c r="DR1" s="44">
         <v>968</v>
       </c>
-      <c r="DS1" s="52">
+      <c r="DS1" s="45">
         <v>969</v>
       </c>
-      <c r="DT1" s="52">
+      <c r="DT1" s="45">
         <v>970</v>
       </c>
-      <c r="DU1" s="52">
+      <c r="DU1" s="45">
         <v>971</v>
       </c>
-      <c r="DV1" s="52">
+      <c r="DV1" s="45">
         <v>972</v>
       </c>
-      <c r="DW1" s="52">
+      <c r="DW1" s="45">
         <v>973</v>
       </c>
-      <c r="DX1" s="52">
+      <c r="DX1" s="45">
         <v>974</v>
       </c>
-      <c r="DY1" s="52">
+      <c r="DY1" s="45">
         <v>975</v>
       </c>
-      <c r="DZ1" s="52">
+      <c r="DZ1" s="45">
         <v>976</v>
       </c>
-      <c r="EA1" s="52">
+      <c r="EA1" s="45">
         <v>977</v>
       </c>
-      <c r="EB1" s="52">
+      <c r="EB1" s="45">
         <v>978</v>
       </c>
-      <c r="EC1" s="52">
+      <c r="EC1" s="45">
         <v>979</v>
       </c>
-      <c r="ED1" s="52">
+      <c r="ED1" s="45">
         <v>980</v>
       </c>
-      <c r="EE1" s="52">
+      <c r="EE1" s="45">
         <v>981</v>
       </c>
-      <c r="EF1" s="52">
+      <c r="EF1" s="45">
         <v>982</v>
       </c>
-      <c r="EG1" s="52">
+      <c r="EG1" s="45">
         <v>983</v>
       </c>
-      <c r="EH1" s="52">
+      <c r="EH1" s="45">
         <v>984</v>
       </c>
-      <c r="EI1" s="52">
+      <c r="EI1" s="45">
         <v>985</v>
       </c>
-      <c r="EJ1" s="52">
+      <c r="EJ1" s="45">
         <v>986</v>
       </c>
-      <c r="EK1" s="52">
+      <c r="EK1" s="45">
         <v>987</v>
       </c>
-      <c r="EL1" s="52">
+      <c r="EL1" s="45">
         <v>988</v>
       </c>
-      <c r="EM1" s="52">
+      <c r="EM1" s="45">
         <v>989</v>
       </c>
-      <c r="EN1" s="52">
+      <c r="EN1" s="45">
         <v>990</v>
       </c>
-      <c r="EO1" s="53">
+      <c r="EO1" s="46">
         <v>991</v>
       </c>
-      <c r="EP1" s="51">
+      <c r="EP1" s="44">
         <v>992</v>
       </c>
-      <c r="EQ1" s="52">
+      <c r="EQ1" s="45">
         <v>993</v>
       </c>
-      <c r="ER1" s="52">
+      <c r="ER1" s="45">
         <v>994</v>
       </c>
-      <c r="ES1" s="52">
+      <c r="ES1" s="45">
         <v>995</v>
       </c>
-      <c r="ET1" s="52">
+      <c r="ET1" s="45">
         <v>996</v>
       </c>
-      <c r="EU1" s="52">
+      <c r="EU1" s="45">
         <v>997</v>
       </c>
-      <c r="EV1" s="52">
+      <c r="EV1" s="45">
         <v>998</v>
       </c>
-      <c r="EW1" s="52">
+      <c r="EW1" s="45">
         <v>999</v>
       </c>
-      <c r="EX1" s="52">
+      <c r="EX1" s="45">
         <v>1000</v>
       </c>
-      <c r="EY1" s="52">
+      <c r="EY1" s="45">
         <v>1001</v>
       </c>
-      <c r="EZ1" s="52">
+      <c r="EZ1" s="45">
         <v>1002</v>
       </c>
-      <c r="FA1" s="52">
+      <c r="FA1" s="45">
         <v>1003</v>
       </c>
-      <c r="FB1" s="52">
+      <c r="FB1" s="45">
         <v>1004</v>
       </c>
-      <c r="FC1" s="52">
+      <c r="FC1" s="45">
         <v>1005</v>
       </c>
-      <c r="FD1" s="52">
+      <c r="FD1" s="45">
         <v>1006</v>
       </c>
-      <c r="FE1" s="52">
+      <c r="FE1" s="45">
         <v>1007</v>
       </c>
-      <c r="FF1" s="52">
+      <c r="FF1" s="45">
         <v>1008</v>
       </c>
-      <c r="FG1" s="52">
+      <c r="FG1" s="45">
         <v>1009</v>
       </c>
-      <c r="FH1" s="52">
+      <c r="FH1" s="45">
         <v>1010</v>
       </c>
-      <c r="FI1" s="52">
+      <c r="FI1" s="45">
         <v>1011</v>
       </c>
-      <c r="FJ1" s="52">
+      <c r="FJ1" s="45">
         <v>1012</v>
       </c>
-      <c r="FK1" s="52">
+      <c r="FK1" s="45">
         <v>1013</v>
       </c>
-      <c r="FL1" s="52">
+      <c r="FL1" s="45">
         <v>1014</v>
       </c>
-      <c r="FM1" s="53">
+      <c r="FM1" s="46">
         <v>1015</v>
       </c>
-      <c r="FN1" s="51">
+      <c r="FN1" s="44">
         <v>1016</v>
       </c>
-      <c r="FO1" s="52">
+      <c r="FO1" s="45">
         <v>1017</v>
       </c>
-      <c r="FP1" s="52">
+      <c r="FP1" s="45">
         <v>1018</v>
       </c>
-      <c r="FQ1" s="52">
+      <c r="FQ1" s="45">
         <v>1019</v>
       </c>
-      <c r="FR1" s="52">
+      <c r="FR1" s="45">
         <v>1020</v>
       </c>
-      <c r="FS1" s="52">
+      <c r="FS1" s="45">
         <v>1021</v>
       </c>
-      <c r="FT1" s="52">
+      <c r="FT1" s="45">
         <v>1022</v>
       </c>
-      <c r="FU1" s="52">
+      <c r="FU1" s="45">
         <v>1023</v>
       </c>
-      <c r="FV1" s="52">
+      <c r="FV1" s="45">
         <v>1024</v>
       </c>
-      <c r="FW1" s="52">
+      <c r="FW1" s="45">
         <v>1025</v>
       </c>
-      <c r="FX1" s="52">
+      <c r="FX1" s="45">
         <v>1026</v>
       </c>
-      <c r="FY1" s="52">
+      <c r="FY1" s="45">
         <v>1027</v>
       </c>
-      <c r="FZ1" s="52">
+      <c r="FZ1" s="45">
         <v>1028</v>
       </c>
-      <c r="GA1" s="52">
+      <c r="GA1" s="45">
         <v>1029</v>
       </c>
-      <c r="GB1" s="52">
+      <c r="GB1" s="45">
         <v>1030</v>
       </c>
-      <c r="GC1" s="52">
+      <c r="GC1" s="45">
         <v>1031</v>
       </c>
-      <c r="GD1" s="52">
+      <c r="GD1" s="45">
         <v>1032</v>
       </c>
-      <c r="GE1" s="52">
+      <c r="GE1" s="45">
         <v>1033</v>
       </c>
-      <c r="GF1" s="52">
+      <c r="GF1" s="45">
         <v>1034</v>
       </c>
-      <c r="GG1" s="52">
+      <c r="GG1" s="45">
         <v>1035</v>
       </c>
-      <c r="GH1" s="52">
+      <c r="GH1" s="45">
         <v>1036</v>
       </c>
-      <c r="GI1" s="52">
+      <c r="GI1" s="45">
         <v>1037</v>
       </c>
-      <c r="GJ1" s="52">
+      <c r="GJ1" s="45">
         <v>1038</v>
       </c>
-      <c r="GK1" s="53">
+      <c r="GK1" s="46">
         <v>1039</v>
       </c>
-      <c r="GL1" s="51">
+      <c r="GL1" s="44">
         <v>1040</v>
       </c>
-      <c r="GM1" s="52">
+      <c r="GM1" s="45">
         <v>1041</v>
       </c>
-      <c r="GN1" s="52">
+      <c r="GN1" s="45">
         <v>1042</v>
       </c>
-      <c r="GO1" s="52">
+      <c r="GO1" s="45">
         <v>1043</v>
       </c>
-      <c r="GP1" s="52">
+      <c r="GP1" s="45">
         <v>1044</v>
       </c>
-      <c r="GQ1" s="52">
+      <c r="GQ1" s="45">
         <v>1045</v>
       </c>
-      <c r="GR1" s="52">
+      <c r="GR1" s="45">
         <v>1046</v>
       </c>
-      <c r="GS1" s="52">
+      <c r="GS1" s="45">
         <v>1047</v>
       </c>
-      <c r="GT1" s="52">
+      <c r="GT1" s="45">
         <v>1048</v>
       </c>
-      <c r="GU1" s="52">
+      <c r="GU1" s="45">
         <v>1049</v>
       </c>
-      <c r="GV1" s="52">
+      <c r="GV1" s="45">
         <v>1050</v>
       </c>
-      <c r="GW1" s="52">
+      <c r="GW1" s="45">
         <v>1051</v>
       </c>
-      <c r="GX1" s="52">
+      <c r="GX1" s="45">
         <v>1052</v>
       </c>
-      <c r="GY1" s="52">
+      <c r="GY1" s="45">
         <v>1053</v>
       </c>
-      <c r="GZ1" s="52">
+      <c r="GZ1" s="45">
         <v>1054</v>
       </c>
-      <c r="HA1" s="52">
+      <c r="HA1" s="45">
         <v>1055</v>
       </c>
-      <c r="HB1" s="52">
+      <c r="HB1" s="45">
         <v>1056</v>
       </c>
-      <c r="HC1" s="52">
+      <c r="HC1" s="45">
         <v>1057</v>
       </c>
-      <c r="HD1" s="52">
+      <c r="HD1" s="45">
         <v>1058</v>
       </c>
-      <c r="HE1" s="52">
+      <c r="HE1" s="45">
         <v>1059</v>
       </c>
-      <c r="HF1" s="52">
+      <c r="HF1" s="45">
         <v>1060</v>
       </c>
-      <c r="HG1" s="52">
+      <c r="HG1" s="45">
         <v>1061</v>
       </c>
-      <c r="HH1" s="52">
+      <c r="HH1" s="45">
         <v>1062</v>
       </c>
-      <c r="HI1" s="53">
+      <c r="HI1" s="46">
         <v>1063</v>
       </c>
     </row>
@@ -5250,7 +5536,7 @@
       <c r="Y2" s="8">
         <v>24</v>
       </c>
-      <c r="Z2" s="25"/>
+      <c r="Z2" s="24"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -5273,8 +5559,8 @@
       <c r="AT2" s="8"/>
       <c r="AU2" s="8"/>
       <c r="AV2" s="8"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="24"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
@@ -5297,8 +5583,8 @@
       <c r="BR2" s="8"/>
       <c r="BS2" s="8"/>
       <c r="BT2" s="8"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="24"/>
       <c r="BW2" s="8"/>
       <c r="BX2" s="8"/>
       <c r="BY2" s="8"/>
@@ -5321,8 +5607,8 @@
       <c r="CP2" s="8"/>
       <c r="CQ2" s="8"/>
       <c r="CR2" s="8"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="24"/>
       <c r="CU2" s="8"/>
       <c r="CV2" s="8"/>
       <c r="CW2" s="8"/>
@@ -5345,8 +5631,8 @@
       <c r="DN2" s="8"/>
       <c r="DO2" s="8"/>
       <c r="DP2" s="8"/>
-      <c r="DQ2" s="26"/>
-      <c r="DR2" s="25"/>
+      <c r="DQ2" s="25"/>
+      <c r="DR2" s="24"/>
       <c r="DS2" s="8"/>
       <c r="DT2" s="8"/>
       <c r="DU2" s="8"/>
@@ -5369,8 +5655,8 @@
       <c r="EL2" s="8"/>
       <c r="EM2" s="8"/>
       <c r="EN2" s="8"/>
-      <c r="EO2" s="26"/>
-      <c r="EP2" s="25"/>
+      <c r="EO2" s="25"/>
+      <c r="EP2" s="24"/>
       <c r="EQ2" s="8"/>
       <c r="ER2" s="8"/>
       <c r="ES2" s="8"/>
@@ -5393,8 +5679,8 @@
       <c r="FJ2" s="8"/>
       <c r="FK2" s="8"/>
       <c r="FL2" s="8"/>
-      <c r="FM2" s="26"/>
-      <c r="FN2" s="25"/>
+      <c r="FM2" s="25"/>
+      <c r="FN2" s="24"/>
       <c r="FO2" s="8"/>
       <c r="FP2" s="8"/>
       <c r="FQ2" s="8"/>
@@ -5417,8 +5703,8 @@
       <c r="GH2" s="8"/>
       <c r="GI2" s="8"/>
       <c r="GJ2" s="8"/>
-      <c r="GK2" s="26"/>
-      <c r="GL2" s="25"/>
+      <c r="GK2" s="25"/>
+      <c r="GL2" s="24"/>
       <c r="GM2" s="8"/>
       <c r="GN2" s="8"/>
       <c r="GO2" s="8"/>
@@ -5441,11 +5727,11 @@
       <c r="HF2" s="8"/>
       <c r="HG2" s="8"/>
       <c r="HH2" s="8"/>
-      <c r="HI2" s="26"/>
+      <c r="HI2" s="25"/>
     </row>
     <row r="3" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="20" t="str">
         <f>MID($A3,COLUMNS($A$3:A$3),1)</f>
@@ -5463,11 +5749,11 @@
         <f>MID($A3,COLUMNS($A$3:D$3),1)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:E$3),1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="58" t="str">
+      <c r="G3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:F$3),1)</f>
         <v>1</v>
       </c>
@@ -5483,11 +5769,11 @@
         <f>MID($A3,COLUMNS($A$3:I$3),1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K3" s="58" t="str">
+      <c r="K3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:J$3),1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L3" s="58" t="str">
+      <c r="L3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:K$3),1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -5507,11 +5793,11 @@
         <f>MID($A3,COLUMNS($A$3:O$3),1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q3" s="58" t="str">
+      <c r="Q3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:P$3),1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R3" s="58" t="str">
+      <c r="R3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:Q$3),1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -5531,11 +5817,11 @@
         <f>MID($A3,COLUMNS($A$3:U$3),1)</f>
         <v>9</v>
       </c>
-      <c r="W3" s="58" t="str">
+      <c r="W3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:V$3),1)</f>
         <v>7</v>
       </c>
-      <c r="X3" s="58" t="str">
+      <c r="X3" s="51" t="str">
         <f>MID($A3,COLUMNS($A$3:W$3),1)</f>
         <v>1</v>
       </c>
@@ -5543,7 +5829,7 @@
         <f>MID($A3,COLUMNS($A$3:X$3),1)</f>
         <v>1</v>
       </c>
-      <c r="Z3" s="25" t="str">
+      <c r="Z3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:Y$3),1)</f>
         <v>0</v>
       </c>
@@ -5635,11 +5921,11 @@
         <f>MID($A3,COLUMNS($A$3:AU$3),1)</f>
         <v>1</v>
       </c>
-      <c r="AW3" s="26" t="str">
+      <c r="AW3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:AV$3),1)</f>
         <v>1</v>
       </c>
-      <c r="AX3" s="25" t="str">
+      <c r="AX3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:AW$3),1)</f>
         <v>0</v>
       </c>
@@ -5731,11 +6017,11 @@
         <f>MID($A3,COLUMNS($A$3:BS$3),1)</f>
         <v>1</v>
       </c>
-      <c r="BU3" s="26" t="str">
+      <c r="BU3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:BT$3),1)</f>
         <v>1</v>
       </c>
-      <c r="BV3" s="25" t="str">
+      <c r="BV3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:BU$3),1)</f>
         <v>0</v>
       </c>
@@ -5827,11 +6113,11 @@
         <f>MID($A3,COLUMNS($A$3:CQ$3),1)</f>
         <v>1</v>
       </c>
-      <c r="CS3" s="26" t="str">
+      <c r="CS3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:CR$3),1)</f>
         <v>1</v>
       </c>
-      <c r="CT3" s="25" t="str">
+      <c r="CT3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:CS$3),1)</f>
         <v>0</v>
       </c>
@@ -5923,11 +6209,11 @@
         <f>MID($A3,COLUMNS($A$3:DO$3),1)</f>
         <v>1</v>
       </c>
-      <c r="DQ3" s="26" t="str">
+      <c r="DQ3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:DP$3),1)</f>
         <v>1</v>
       </c>
-      <c r="DR3" s="25" t="str">
+      <c r="DR3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:DQ$3),1)</f>
         <v>0</v>
       </c>
@@ -6019,11 +6305,11 @@
         <f>MID($A3,COLUMNS($A$3:EM$3),1)</f>
         <v>1</v>
       </c>
-      <c r="EO3" s="26" t="str">
+      <c r="EO3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:EN$3),1)</f>
         <v>1</v>
       </c>
-      <c r="EP3" s="25" t="str">
+      <c r="EP3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:EO$3),1)</f>
         <v>0</v>
       </c>
@@ -6115,11 +6401,11 @@
         <f>MID($A3,COLUMNS($A$3:FK$3),1)</f>
         <v>1</v>
       </c>
-      <c r="FM3" s="26" t="str">
+      <c r="FM3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:FL$3),1)</f>
         <v>1</v>
       </c>
-      <c r="FN3" s="25" t="str">
+      <c r="FN3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:FM$3),1)</f>
         <v>0</v>
       </c>
@@ -6211,11 +6497,11 @@
         <f>MID($A3,COLUMNS($A$3:GI$3),1)</f>
         <v>1</v>
       </c>
-      <c r="GK3" s="26" t="str">
+      <c r="GK3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:GJ$3),1)</f>
         <v>1</v>
       </c>
-      <c r="GL3" s="25" t="str">
+      <c r="GL3" s="24" t="str">
         <f>MID($A3,COLUMNS($A$3:GK$3),1)</f>
         <v>0</v>
       </c>
@@ -6307,7 +6593,7 @@
         <f>MID($A3,COLUMNS($A$3:HG$3),1)</f>
         <v>1</v>
       </c>
-      <c r="HI3" s="26" t="str">
+      <c r="HI3" s="25" t="str">
         <f>MID($A3,COLUMNS($A$3:HH$3),1)</f>
         <v>1</v>
       </c>
@@ -6656,388 +6942,388 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:303" s="44" customFormat="1" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="1:303" s="37" customFormat="1" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48" t="s">
+      <c r="H4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48" t="s">
+      <c r="M4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="S4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48" t="s">
+      <c r="AW4" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z4" s="55" t="s">
+      <c r="AX4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48" t="s">
+      <c r="BD4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AF4" s="45" t="s">
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="BI4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="45" t="s">
+      <c r="BO4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU4" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="BV4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="BW4" s="39"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="48" t="s">
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39"/>
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="CM4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AQ4" s="45" t="s">
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="48" t="s">
+      <c r="CS4" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="AW4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="AX4" s="55" t="s">
+      <c r="CT4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="CU4" s="39"/>
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="48" t="s">
+      <c r="CZ4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="BD4" s="45" t="s">
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="48" t="s">
+      <c r="DE4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39"/>
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="BI4" s="45" t="s">
+      <c r="DK4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="DQ4" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="DS4" s="39"/>
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="DX4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="EC4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="48" t="s">
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39"/>
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="EI4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="BO4" s="45" t="s">
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="47"/>
-      <c r="BT4" s="48" t="s">
+      <c r="EO4" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="BU4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV4" s="55" t="s">
+      <c r="EP4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="EQ4" s="39"/>
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="47"/>
-      <c r="CA4" s="48" t="s">
+      <c r="EV4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="CB4" s="45" t="s">
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="47"/>
-      <c r="CF4" s="48" t="s">
+      <c r="FA4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39"/>
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="CG4" s="45" t="s">
+      <c r="FG4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="FM4" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="FN4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="FO4" s="39"/>
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="FT4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="FY4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="47"/>
-      <c r="CL4" s="48" t="s">
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39"/>
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="GE4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="CM4" s="45" t="s">
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="CN4" s="46"/>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
-      <c r="CQ4" s="47"/>
-      <c r="CR4" s="48" t="s">
+      <c r="GK4" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="CS4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="CT4" s="55" t="s">
+      <c r="GL4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM4" s="39"/>
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="47"/>
-      <c r="CY4" s="48" t="s">
+      <c r="GR4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="CZ4" s="45" t="s">
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="DA4" s="46"/>
-      <c r="DB4" s="46"/>
-      <c r="DC4" s="47"/>
-      <c r="DD4" s="48" t="s">
+      <c r="GW4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39"/>
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="DE4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="DF4" s="46"/>
-      <c r="DG4" s="46"/>
-      <c r="DH4" s="46"/>
-      <c r="DI4" s="47"/>
-      <c r="DJ4" s="48" t="s">
+      <c r="HC4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="DK4" s="45" t="s">
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="DL4" s="46"/>
-      <c r="DM4" s="46"/>
-      <c r="DN4" s="46"/>
-      <c r="DO4" s="47"/>
-      <c r="DP4" s="48" t="s">
+      <c r="HI4" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="DQ4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="DR4" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS4" s="46"/>
-      <c r="DT4" s="46"/>
-      <c r="DU4" s="46"/>
-      <c r="DV4" s="47"/>
-      <c r="DW4" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="DX4" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="DY4" s="46"/>
-      <c r="DZ4" s="46"/>
-      <c r="EA4" s="47"/>
-      <c r="EB4" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="EC4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="ED4" s="46"/>
-      <c r="EE4" s="46"/>
-      <c r="EF4" s="46"/>
-      <c r="EG4" s="47"/>
-      <c r="EH4" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="EI4" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="EJ4" s="46"/>
-      <c r="EK4" s="46"/>
-      <c r="EL4" s="46"/>
-      <c r="EM4" s="47"/>
-      <c r="EN4" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="EO4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="EP4" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="EQ4" s="46"/>
-      <c r="ER4" s="46"/>
-      <c r="ES4" s="46"/>
-      <c r="ET4" s="47"/>
-      <c r="EU4" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="EV4" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="EW4" s="46"/>
-      <c r="EX4" s="46"/>
-      <c r="EY4" s="47"/>
-      <c r="EZ4" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="FA4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="FB4" s="46"/>
-      <c r="FC4" s="46"/>
-      <c r="FD4" s="46"/>
-      <c r="FE4" s="47"/>
-      <c r="FF4" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="FG4" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="FH4" s="46"/>
-      <c r="FI4" s="46"/>
-      <c r="FJ4" s="46"/>
-      <c r="FK4" s="47"/>
-      <c r="FL4" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="FM4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="FN4" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO4" s="46"/>
-      <c r="FP4" s="46"/>
-      <c r="FQ4" s="46"/>
-      <c r="FR4" s="47"/>
-      <c r="FS4" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="FT4" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="FU4" s="46"/>
-      <c r="FV4" s="46"/>
-      <c r="FW4" s="47"/>
-      <c r="FX4" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="FY4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="FZ4" s="46"/>
-      <c r="GA4" s="46"/>
-      <c r="GB4" s="46"/>
-      <c r="GC4" s="47"/>
-      <c r="GD4" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="GE4" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="GF4" s="46"/>
-      <c r="GG4" s="46"/>
-      <c r="GH4" s="46"/>
-      <c r="GI4" s="47"/>
-      <c r="GJ4" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="GK4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="GL4" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="GM4" s="46"/>
-      <c r="GN4" s="46"/>
-      <c r="GO4" s="46"/>
-      <c r="GP4" s="47"/>
-      <c r="GQ4" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="GR4" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="GS4" s="46"/>
-      <c r="GT4" s="46"/>
-      <c r="GU4" s="47"/>
-      <c r="GV4" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="GW4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="GX4" s="46"/>
-      <c r="GY4" s="46"/>
-      <c r="GZ4" s="46"/>
-      <c r="HA4" s="47"/>
-      <c r="HB4" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="HC4" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="HD4" s="46"/>
-      <c r="HE4" s="46"/>
-      <c r="HF4" s="46"/>
-      <c r="HG4" s="47"/>
-      <c r="HH4" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="HI4" s="54" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="19" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG19" s="57"/>
+      <c r="AG19" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7045,26 +7331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -7287,32 +7553,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7329,4 +7590,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evri.sharepoint.com/sites/ukho-meds/Shared Documents/MEDS DB/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B1CA6BC-F4F9-4FDB-B855-658BA4BB4132}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E4EFC81F-F098-4CA8-8F24-5259F3440581}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" activeTab="1" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_INDEX" sheetId="2" r:id="rId1"/>
@@ -1003,21 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,6 +1022,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1389,12 +1389,12 @@
       <c r="F1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1415,7 +1415,7 @@
       <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1444,7 +1444,7 @@
       <c r="G3" s="17">
         <v>2</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -1473,7 +1473,7 @@
       <c r="G4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>78</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="G5" s="17">
         <v>4</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -1529,7 +1529,7 @@
       <c r="G6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="9" t="s">
         <v>81</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="G7" s="17">
         <v>6</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1585,7 +1585,7 @@
       <c r="G8" s="17">
         <v>7</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1614,7 +1614,7 @@
       <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -1643,7 +1643,7 @@
       <c r="G10" s="17">
         <v>9</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -1672,7 +1672,7 @@
       <c r="G11" s="17">
         <v>10</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1701,7 +1701,7 @@
       <c r="G12" s="17">
         <v>11</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -1730,7 +1730,7 @@
       <c r="G13" s="17">
         <v>12</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -1759,7 +1759,7 @@
       <c r="G14" s="17">
         <v>13</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -1788,7 +1788,7 @@
       <c r="G15" s="17">
         <v>14</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -1811,7 +1811,7 @@
       <c r="G16" s="17">
         <v>15</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -1834,7 +1834,7 @@
       <c r="G17" s="17">
         <v>16</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -1863,7 +1863,7 @@
       <c r="G18" s="17">
         <v>17</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1886,7 +1886,7 @@
       <c r="G19" s="17">
         <v>18</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -1910,7 +1910,7 @@
       <c r="G20" s="17">
         <v>19</v>
       </c>
-      <c r="H20" s="58"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="9" t="s">
         <v>99</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="G21" s="17">
         <v>20</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="9" t="s">
         <v>101</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="G22" s="17">
         <v>21</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="9" t="s">
         <v>102</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="G23" s="17">
         <v>22</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="53" t="s">
         <v>180</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -2006,7 +2006,7 @@
       <c r="G24" s="19">
         <v>23</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="54" t="s">
         <v>180</v>
       </c>
       <c r="I24" s="15" t="s">
@@ -2260,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748F7A6-9708-4A82-9ADC-4118F011AC82}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -2289,27 +2289,27 @@
       <c r="C1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="55" t="s">
         <v>147</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="53" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="53" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2321,7 +2321,7 @@
       <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="53">
         <v>35</v>
       </c>
       <c r="F2" s="17">
@@ -2362,7 +2362,7 @@
       <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="53">
         <v>81</v>
       </c>
       <c r="F3" s="17">
@@ -2401,7 +2401,7 @@
       <c r="D4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="53" t="s">
         <v>149</v>
       </c>
       <c r="F4" s="17">
@@ -2522,7 +2522,7 @@
       <c r="D7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="53">
         <v>123</v>
       </c>
       <c r="F7" s="17">
@@ -2563,7 +2563,7 @@
       <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="53">
         <v>121</v>
       </c>
       <c r="F8" s="17">
@@ -2604,7 +2604,7 @@
       <c r="D9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="53">
         <v>129</v>
       </c>
       <c r="F9" s="17">
@@ -2645,7 +2645,7 @@
       <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="53">
         <v>125</v>
       </c>
       <c r="F10" s="17">
@@ -2686,7 +2686,7 @@
       <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="53">
         <v>138</v>
       </c>
       <c r="F11" s="17">
@@ -2727,7 +2727,7 @@
       <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="53">
         <v>136</v>
       </c>
       <c r="F12" s="17">
@@ -2768,7 +2768,7 @@
       <c r="D13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="53">
         <v>151</v>
       </c>
       <c r="F13" s="17">
@@ -2780,22 +2780,22 @@
       <c r="H13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="N13" s="64" t="s">
+      <c r="I13" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="53">
         <v>101</v>
       </c>
       <c r="F14" s="17">
@@ -2850,7 +2850,7 @@
       <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="53">
         <v>105</v>
       </c>
       <c r="F15" s="17">
@@ -2891,7 +2891,7 @@
       <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="53">
         <v>140</v>
       </c>
       <c r="F16" s="17">
@@ -2932,7 +2932,7 @@
       <c r="D17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="53">
         <v>150</v>
       </c>
       <c r="F17" s="17">
@@ -2944,22 +2944,22 @@
       <c r="H17" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="M17" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="N17" s="64" t="s">
+      <c r="I17" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="53">
         <v>74</v>
       </c>
       <c r="F18" s="17">
@@ -3014,7 +3014,7 @@
       <c r="D19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="53">
         <v>155</v>
       </c>
       <c r="F19" s="17">
@@ -3026,22 +3026,22 @@
       <c r="H19" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="N19" s="64" t="s">
+      <c r="I19" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       <c r="D20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="53">
         <v>157</v>
       </c>
       <c r="F20" s="17">
@@ -3096,7 +3096,7 @@
       <c r="D21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="53">
         <v>145</v>
       </c>
       <c r="F21" s="17">
@@ -3138,7 +3138,7 @@
       <c r="D22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="53">
         <v>158</v>
       </c>
       <c r="F22" s="17">
@@ -3150,22 +3150,22 @@
       <c r="H22" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="N22" s="64" t="s">
+      <c r="I22" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="D23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="53">
         <v>159</v>
       </c>
       <c r="F23" s="17">
@@ -3192,22 +3192,22 @@
       <c r="H23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L23" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="M23" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="N23" s="64" t="s">
+      <c r="I23" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="D24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="53">
         <v>134</v>
       </c>
       <c r="F24" s="17">
@@ -3264,7 +3264,7 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="53">
         <v>135</v>
       </c>
       <c r="F25" s="17">
@@ -3306,7 +3306,7 @@
       <c r="D26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="53">
         <v>133</v>
       </c>
       <c r="F26" s="17">
@@ -3348,16 +3348,16 @@
       <c r="D27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="53">
         <v>112</v>
       </c>
-      <c r="F27" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="61" t="s">
+      <c r="F27" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="56" t="s">
         <v>148</v>
       </c>
       <c r="I27" s="17">
@@ -3390,16 +3390,16 @@
       <c r="D28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="53">
         <v>108</v>
       </c>
-      <c r="F28" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="61" t="s">
+      <c r="F28" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="56" t="s">
         <v>148</v>
       </c>
       <c r="I28" s="17">
@@ -3432,7 +3432,7 @@
       <c r="D29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="53">
         <v>149</v>
       </c>
       <c r="F29" s="17">
@@ -3474,7 +3474,7 @@
       <c r="D30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="53">
         <v>33</v>
       </c>
       <c r="F30" s="17">
@@ -3516,7 +3516,7 @@
       <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="53">
         <v>34</v>
       </c>
       <c r="F31" s="17">
@@ -3558,7 +3558,7 @@
       <c r="D32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="53">
         <v>120</v>
       </c>
       <c r="F32" s="17">
@@ -3600,7 +3600,7 @@
       <c r="D33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="53">
         <v>119</v>
       </c>
       <c r="F33" s="17">
@@ -3642,7 +3642,7 @@
       <c r="D34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="53">
         <v>115</v>
       </c>
       <c r="F34" s="17">
@@ -3684,7 +3684,7 @@
       <c r="D35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="53">
         <v>118</v>
       </c>
       <c r="F35" s="17">
@@ -3726,7 +3726,7 @@
       <c r="D36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="53">
         <v>8</v>
       </c>
       <c r="F36" s="17">
@@ -3995,21 +3995,21 @@
       <c r="D1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="53" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="53" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7331,6 +7331,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -7553,27 +7573,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7590,29 +7615,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evri.sharepoint.com/sites/ukho-meds/Shared Documents/MEDS DB/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E4EFC81F-F098-4CA8-8F24-5259F3440581}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E61AF461-C0E3-4A80-BB5A-9D4DE9E95DD5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_INDEX" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="183">
   <si>
     <t>RECORDNUMBER</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>position 47</t>
-  </si>
-  <si>
-    <t>Waiting algorithm</t>
   </si>
   <si>
     <t>SHIP_DETAIL.MEDS_SHIP_NUMBER</t>
@@ -586,7 +583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,8 +599,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +618,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -890,10 +899,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,8 +1049,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1355,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>74</v>
@@ -1445,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>76</v>
@@ -1465,15 +1485,17 @@
         <v>148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="53" t="s">
+        <v>179</v>
+      </c>
       <c r="I4" s="9" t="s">
         <v>78</v>
       </c>
@@ -1501,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>66</v>
@@ -1529,11 +1551,11 @@
       <c r="G6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="65"/>
+      <c r="I6" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="67" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1557,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>69</v>
@@ -1586,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>84</v>
@@ -1615,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>85</v>
@@ -1644,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>87</v>
@@ -1673,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>88</v>
@@ -1702,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>89</v>
@@ -1731,7 +1753,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>68</v>
@@ -1760,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>7</v>
@@ -1789,7 +1811,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>92</v>
@@ -1812,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>93</v>
@@ -1825,9 +1847,15 @@
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="F17" s="52" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1863,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>95</v>
@@ -1864,7 +1892,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>97</v>
@@ -1877,9 +1905,15 @@
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="F19" s="8" t="s">
         <v>176</v>
       </c>
@@ -1887,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>98</v>
@@ -1901,16 +1935,24 @@
         <v>57</v>
       </c>
       <c r="B20" s="29"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
-        <v>177</v>
+      <c r="C20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="G20" s="17">
         <v>19</v>
       </c>
-      <c r="H20" s="53"/>
+      <c r="H20" s="53" t="s">
+        <v>179</v>
+      </c>
       <c r="I20" s="9" t="s">
         <v>99</v>
       </c>
@@ -1923,16 +1965,24 @@
         <v>22</v>
       </c>
       <c r="B21" s="29"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
-        <v>177</v>
+      <c r="C21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="G21" s="17">
         <v>20</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="53" t="s">
+        <v>179</v>
+      </c>
       <c r="I21" s="9" t="s">
         <v>101</v>
       </c>
@@ -1945,16 +1995,24 @@
         <v>23</v>
       </c>
       <c r="B22" s="29"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
-        <v>177</v>
+      <c r="C22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="G22" s="17">
         <v>21</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="53" t="s">
+        <v>179</v>
+      </c>
       <c r="I22" s="9" t="s">
         <v>102</v>
       </c>
@@ -1974,16 +2032,16 @@
         <v>148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G23" s="17">
         <v>22</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>103</v>
@@ -1997,9 +2055,15 @@
         <v>3</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="F24" s="14" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +2071,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>104</v>
@@ -2293,7 +2357,7 @@
         <v>147</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="60" t="s">
         <v>143</v>
@@ -2438,7 +2502,7 @@
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>148</v>
@@ -2479,7 +2543,7 @@
         <v>105</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>148</v>
@@ -7331,26 +7395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -7573,32 +7617,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7615,4 +7654,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="52" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E61AF461-C0E3-4A80-BB5A-9D4DE9E95DD5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_INDEX" sheetId="2" r:id="rId1"/>
@@ -1034,6 +1034,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,15 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1375,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -1409,12 +1409,12 @@
       <c r="F1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1551,11 +1551,11 @@
       <c r="G6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="62" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2359,21 +2359,21 @@
       <c r="E1" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="60" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="60" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4059,21 +4059,21 @@
       <c r="D1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="60" t="s">
+      <c r="I1" s="64"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7395,6 +7395,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -7617,27 +7637,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7654,29 +7679,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/analysis/SERD_Files_Mapping.xlsx
+++ b/analysis/SERD_Files_Mapping.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="52" documentId="6_{0C145658-17D9-4227-B73F-1B16731E47F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E61AF461-C0E3-4A80-BB5A-9D4DE9E95DD5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14160" activeTab="3" xr2:uid="{0302A20B-65BC-4FFC-A169-DD929ACADB36}"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_INDEX" sheetId="2" r:id="rId1"/>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DE2DC-4331-4218-BF29-460195BF954E}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2325,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,7 +4028,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4866,7 +4866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060310E-1F88-4686-9470-C12E54B461AB}">
   <dimension ref="A1:KQ19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3:W3"/>
     </sheetView>
   </sheetViews>
@@ -7395,26 +7395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAE28352B96D64C95AA0D5E2FA62FAD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed183881d36ac1b5d7d67982eda510d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d161086-4829-409f-9f75-5bde88dcb151" xmlns:ns3="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="685f4fda20cf913d28bf77c13cd653dd" ns2:_="" ns3:_="">
     <xsd:import namespace="3d161086-4829-409f-9f75-5bde88dcb151"/>
@@ -7637,32 +7617,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d161086-4829-409f-9f75-5bde88dcb151">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB90D271-0391-4568-AFE8-0F0AB2F87BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7679,4 +7654,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E890D57-E472-4BCE-903F-454BDC6E18F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4520AE-A84B-45D3-BF92-BC546C144CDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3d161086-4829-409f-9f75-5bde88dcb151"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="42d8e6db-7b1e-4a51-8fbb-e5e83cc76820"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>